--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denil\OneDrive\Documentos\GitHub\CHATBOT_CEE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A05BBD-E81C-4BD3-8FE2-7EFEE7E29411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E66225-2C6F-40E7-8F73-242F5C17CE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Planilha1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$178</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="189">
   <si>
     <t>Localidade</t>
   </si>
@@ -560,6 +560,36 @@
   </si>
   <si>
     <t>Metodologias Ágeis</t>
+  </si>
+  <si>
+    <t>Carga Horária</t>
+  </si>
+  <si>
+    <t>20 horas semanais</t>
+  </si>
+  <si>
+    <t>30 horas semanais</t>
+  </si>
+  <si>
+    <t>40 horas semanais</t>
+  </si>
+  <si>
+    <t>6h/dia</t>
+  </si>
+  <si>
+    <t>4h/dia</t>
+  </si>
+  <si>
+    <t>8h/dia</t>
+  </si>
+  <si>
+    <t>4h por dia</t>
+  </si>
+  <si>
+    <t>6h por dia</t>
+  </si>
+  <si>
+    <t>8h por dia</t>
   </si>
 </sst>
 </file>
@@ -617,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -632,6 +662,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,978 +1003,1127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E167ACBD-3E81-4E70-A20B-06ACABE150DA}">
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" activeCellId="7" sqref="C24 C23 C27 C16 C9 C10 C6 C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4"/>
+      <c r="D39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4"/>
+      <c r="D40" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4"/>
+      <c r="D42" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4"/>
+      <c r="D48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4"/>
+      <c r="D50" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4"/>
+      <c r="D51" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4"/>
+      <c r="D53" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4"/>
+      <c r="D54" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4"/>
+      <c r="D56" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4"/>
+      <c r="D57" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="4"/>
+      <c r="D58" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4"/>
+      <c r="D59" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="4"/>
+      <c r="D60" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="4"/>
+      <c r="D62" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4"/>
+      <c r="D63" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="4"/>
+      <c r="D64" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="4"/>
+      <c r="D65" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="4"/>
+      <c r="D67" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="4"/>
+      <c r="D69" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="4"/>
+      <c r="D70" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="4"/>
+      <c r="D71" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="4"/>
+      <c r="D72" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="4"/>
+      <c r="D73" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>176</v>
       </c>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="4"/>
+      <c r="D78" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="4"/>
+      <c r="D79" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C80" s="7"/>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C80" s="4"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C81" s="7"/>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C82" s="4"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C83" s="4"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C85" s="4"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="4"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C91" s="4"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C92" s="4"/>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C96" s="4"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C99" s="4"/>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C101" s="4"/>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C102" s="4"/>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C103" s="4"/>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C105" s="4"/>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" s="4"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C106" s="4"/>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" s="4"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C107" s="4"/>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" s="4"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C108" s="4"/>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" s="4"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C109" s="4"/>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110" s="4"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C110" s="4"/>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B111" s="4"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C111" s="4"/>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B112" s="4"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C112" s="4"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B113" s="4"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C113" s="4"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114" s="4"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C114" s="4"/>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B115" s="4"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C115" s="4"/>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B116" s="4"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C116" s="4"/>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B117" s="4"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C117" s="4"/>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B118" s="4"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C118" s="4"/>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B119" s="4"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C119" s="4"/>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B120" s="4"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C120" s="4"/>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B121" s="4"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C121" s="4"/>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B122" s="4"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C122" s="4"/>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B123" s="4"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C123" s="4"/>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B124" s="4"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C124" s="4"/>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B125" s="4"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C125" s="4"/>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B126" s="4"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C126" s="4"/>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B127" s="4"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C127" s="4"/>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B128" s="4"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C128" s="4"/>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B129" s="4"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C129" s="4"/>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130" s="4"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C130" s="4"/>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B131" s="4"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C131" s="4"/>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B132" s="4"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C132" s="4"/>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B133" s="4"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C133" s="4"/>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B134" s="4"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C134" s="4"/>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B135" s="4"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C135" s="4"/>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B136" s="4"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C136" s="4"/>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B137" s="4"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C137" s="4"/>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B138" s="4"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C138" s="4"/>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B139" s="4"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C139" s="4"/>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B140" s="4"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C140" s="4"/>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B141" s="4"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C141" s="4"/>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B142" s="4"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C142" s="4"/>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B143" s="4"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C143" s="4"/>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B144" s="4"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C144" s="4"/>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B145" s="4"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C145" s="4"/>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B146" s="4"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C146" s="4"/>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B147" s="4"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C147" s="4"/>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B148" s="4"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C148" s="4"/>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B149" s="4"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C149" s="4"/>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B150" s="4"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C150" s="4"/>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B151" s="4"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C151" s="4"/>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B152" s="4"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C152" s="4"/>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B153" s="4"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C153" s="4"/>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B154" s="4"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C154" s="4"/>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B155" s="4"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C155" s="4"/>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B156" s="4"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C156" s="4"/>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B157" s="4"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C157" s="4"/>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B158" s="4"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C158" s="4"/>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B159" s="4"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C159" s="4"/>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B160" s="4"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C160" s="4"/>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B161" s="4"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C161" s="4"/>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" s="4"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C162" s="4"/>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B163" s="4"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C163" s="4"/>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B164" s="4"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C164" s="4"/>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C177">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D177">
     <sortCondition ref="A1:A177"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denil\OneDrive\Documentos\GitHub\CHATBOT_CEE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3813C88A-0B52-4141-B050-3F38F9719794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8EFDCA-4729-4369-9D89-A65C4CC44244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="720" windowWidth="11700" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$178</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="204">
   <si>
     <t>Localidade</t>
   </si>
@@ -157,15 +157,6 @@
     <t>Root cause analysis</t>
   </si>
   <si>
-    <t>Conhecimentos em Lógica de Programação</t>
-  </si>
-  <si>
-    <t>Formação em Engenharia</t>
-  </si>
-  <si>
-    <t>Administração ou Economia</t>
-  </si>
-  <si>
     <t>Capacidade de comunicação</t>
   </si>
   <si>
@@ -181,42 +172,21 @@
     <t>Matemática financeira</t>
   </si>
   <si>
-    <t>Inglês avançado</t>
-  </si>
-  <si>
     <t>Controladoria de fundos</t>
   </si>
   <si>
     <t>Gestão de fundos de investimento</t>
   </si>
   <si>
-    <t>Disponibilidade para modelo de trabalho</t>
-  </si>
-  <si>
-    <t>Entendimento acerca de contabilidade</t>
-  </si>
-  <si>
     <t>Desenvolvimento de produto</t>
   </si>
   <si>
-    <t>Experiência com monitoração e logging</t>
-  </si>
-  <si>
-    <t>Orientação a eventos (Kafka)</t>
-  </si>
-  <si>
     <t>Visão de qualidade de software</t>
   </si>
   <si>
     <t>Banco de dados relacional e não relacional</t>
   </si>
   <si>
-    <t>Produtos financeiros voltados à créditos</t>
-  </si>
-  <si>
-    <t>Habilidades de comunicação interpessoal</t>
-  </si>
-  <si>
     <t>Ferramentas de Analytics</t>
   </si>
   <si>
@@ -226,18 +196,9 @@
     <t>Métricas de marketing digital</t>
   </si>
   <si>
-    <t>Disponibilidade para jornada de 4h ou 6h diárias</t>
-  </si>
-  <si>
     <t>Questionador</t>
   </si>
   <si>
-    <t>Lógica</t>
-  </si>
-  <si>
-    <t>Programação</t>
-  </si>
-  <si>
     <t>Matemática</t>
   </si>
   <si>
@@ -259,15 +220,6 @@
     <t>Tagueamento</t>
   </si>
   <si>
-    <t>Curioso</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>Boot</t>
-  </si>
-  <si>
     <t>Hibernate</t>
   </si>
   <si>
@@ -307,9 +259,6 @@
     <t>Logística</t>
   </si>
   <si>
-    <t>Problemas</t>
-  </si>
-  <si>
     <t>C#</t>
   </si>
   <si>
@@ -554,6 +503,138 @@
   </si>
   <si>
     <t>Power Querry</t>
+  </si>
+  <si>
+    <t>Disponibilidade</t>
+  </si>
+  <si>
+    <t>Monitoração e logging</t>
+  </si>
+  <si>
+    <t>Lógica de Programação</t>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+  </si>
+  <si>
+    <t>Orientação a Objetos</t>
+  </si>
+  <si>
+    <t>Substituicoes</t>
+  </si>
+  <si>
+    <t>empreendedorismo,Espírito empreendedor</t>
+  </si>
+  <si>
+    <t>ambicioso,Ambição</t>
+  </si>
+  <si>
+    <t>ambiciosos,Ambição</t>
+  </si>
+  <si>
+    <t>Cursando curso superior,Universitário</t>
+  </si>
+  <si>
+    <t>Cursando graduação,Universitário</t>
+  </si>
+  <si>
+    <t>Universitários,Universitário</t>
+  </si>
+  <si>
+    <t>Universitário,Universitário</t>
+  </si>
+  <si>
+    <t>Cursando,Universitário</t>
+  </si>
+  <si>
+    <t>Matriculado,Universitário</t>
+  </si>
+  <si>
+    <t>Cursar,Universitário</t>
+  </si>
+  <si>
+    <t>Estudantes, Universitário</t>
+  </si>
+  <si>
+    <t>Graduação em,Formado</t>
+  </si>
+  <si>
+    <t>Ensino superior em andamento,Universitário</t>
+  </si>
+  <si>
+    <t>Cursando Ensino Superior,Universitário</t>
+  </si>
+  <si>
+    <t>Graduação a partir,Universitário</t>
+  </si>
+  <si>
+    <t>curso superior,Universitário</t>
+  </si>
+  <si>
+    <t>formação em,Formado</t>
+  </si>
+  <si>
+    <t>Mentalidade empreendedora,Espírito empreendedor</t>
+  </si>
+  <si>
+    <t>Autonomia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Resiliência</t>
+  </si>
+  <si>
+    <t>ERP SAP 4</t>
+  </si>
+  <si>
+    <t>Hana</t>
+  </si>
+  <si>
+    <t>recém formado,Recém Formado</t>
+  </si>
+  <si>
+    <t>Habilidades Analíticas</t>
+  </si>
+  <si>
+    <t>Google Workspace</t>
+  </si>
+  <si>
+    <t>Sistema SAP</t>
+  </si>
+  <si>
+    <t>matrícula ativa,Universitário</t>
+  </si>
+  <si>
+    <t>Marketing Digital</t>
+  </si>
+  <si>
+    <t>bom relacionamento interpessoal,Comunicação</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>cursando graduação em,Universitário</t>
+  </si>
+  <si>
+    <t>Google Planilhas</t>
+  </si>
+  <si>
+    <t>Estudante de,Universitário</t>
+  </si>
+  <si>
+    <t>Linguagem de programação</t>
+  </si>
+  <si>
+    <t>Linguagens de programação</t>
+  </si>
+  <si>
+    <t>curioso,Curiosidade</t>
+  </si>
+  <si>
+    <t>criativa,Criatividade</t>
+  </si>
+  <si>
+    <t>Formatura a partir,Universitário</t>
   </si>
 </sst>
 </file>
@@ -970,21 +1051,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E167ACBD-3E81-4E70-A20B-06ACABE150DA}">
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -992,1129 +1074,1255 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D70" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D71" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E71" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D73" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="E77" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="E78" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="E79" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F74" s="3"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-      <c r="B80" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D80" s="7"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B80" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
-      <c r="B81" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D81" s="7"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="2"/>
-      <c r="C87" s="4"/>
+      <c r="C87" s="2"/>
       <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="2"/>
-      <c r="C88" s="4"/>
+      <c r="C88" s="2"/>
       <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="4"/>
+      <c r="C89" s="2"/>
       <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="4"/>
+      <c r="C90" s="2"/>
       <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="4"/>
+      <c r="C91" s="2"/>
       <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="4"/>
+      <c r="C92" s="2"/>
       <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="4"/>
+      <c r="C93" s="2"/>
       <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="4"/>
+      <c r="C94" s="2"/>
       <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="4"/>
+      <c r="C95" s="2"/>
       <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="4"/>
+      <c r="C96" s="2"/>
       <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="4"/>
+      <c r="C97" s="2"/>
       <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="4"/>
+      <c r="C98" s="2"/>
       <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="4"/>
+      <c r="C99" s="2"/>
       <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="2"/>
-      <c r="C100" s="4"/>
+      <c r="C100" s="2"/>
       <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="4"/>
+      <c r="C101" s="2"/>
       <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="4"/>
+      <c r="C102" s="2"/>
       <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="4"/>
+      <c r="C103" s="2"/>
       <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="4"/>
+      <c r="C104" s="2"/>
       <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="2"/>
-      <c r="C105" s="4"/>
+      <c r="C105" s="2"/>
       <c r="D105" s="4"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B131" s="2"/>
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C131" s="2"/>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B132" s="2"/>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C132" s="2"/>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B133" s="2"/>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C133" s="2"/>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C144" s="2"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C145" s="2"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C146" s="2"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C147" s="2"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C148" s="2"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C149" s="2"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C150" s="2"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C151" s="2"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C152" s="2"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C153" s="2"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C154" s="2"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C155" s="2"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C156" s="2"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C157" s="2"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C158" s="2"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C159" s="2"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C160" s="2"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C161" s="2"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C162" s="2"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C163" s="2"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C164" s="2"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C165" s="2"/>
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D134" s="2"/>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D135" s="2"/>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D136" s="2"/>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D137" s="2"/>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D138" s="2"/>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D139" s="2"/>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D140" s="2"/>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D141" s="2"/>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D142" s="2"/>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D143" s="2"/>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D144" s="2"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D145" s="2"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D146" s="2"/>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D147" s="2"/>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D148" s="2"/>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D149" s="2"/>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D150" s="2"/>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D151" s="2"/>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D152" s="2"/>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D153" s="2"/>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D154" s="2"/>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D155" s="2"/>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D156" s="2"/>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D157" s="2"/>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D158" s="2"/>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D159" s="2"/>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D160" s="2"/>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D161" s="2"/>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D162" s="2"/>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D163" s="2"/>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D164" s="2"/>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D165" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D177">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E177">
     <sortCondition ref="A1:A177"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denil\OneDrive\Documentos\GitHub\CHATBOT_CEE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8EFDCA-4729-4369-9D89-A65C4CC44244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0567A8-D87C-43AB-B422-4C62E952CBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="720" windowWidth="11700" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="209">
   <si>
     <t>Localidade</t>
   </si>
@@ -460,36 +460,6 @@
     <t>Metodologias Ágeis</t>
   </si>
   <si>
-    <t>Carga Horária</t>
-  </si>
-  <si>
-    <t>20 horas semanais</t>
-  </si>
-  <si>
-    <t>30 horas semanais</t>
-  </si>
-  <si>
-    <t>40 horas semanais</t>
-  </si>
-  <si>
-    <t>6h/dia</t>
-  </si>
-  <si>
-    <t>4h/dia</t>
-  </si>
-  <si>
-    <t>8h/dia</t>
-  </si>
-  <si>
-    <t>4h por dia</t>
-  </si>
-  <si>
-    <t>6h por dia</t>
-  </si>
-  <si>
-    <t>8h por dia</t>
-  </si>
-  <si>
     <t>Serverless Framework</t>
   </si>
   <si>
@@ -635,13 +605,58 @@
   </si>
   <si>
     <t>Formatura a partir,Universitário</t>
+  </si>
+  <si>
+    <t>5 semanas,5 semanas</t>
+  </si>
+  <si>
+    <t>Categorias Carga Horária</t>
+  </si>
+  <si>
+    <t>A combinar,mínimo de 2 meses</t>
+  </si>
+  <si>
+    <t>A combinar,20, 25 ou 30 horas semanais,20, 25 ou 30 horas semanais</t>
+  </si>
+  <si>
+    <t>4h/6h diárias,4h ou 6h diárias,4h ou 6h diárias,4h/6h diárias</t>
+  </si>
+  <si>
+    <t>Flexível,flexível</t>
+  </si>
+  <si>
+    <t>Não especificada,não mencionada,não mencionado,não informado,não informada,não especificada</t>
+  </si>
+  <si>
+    <t>A combinar,horário a combinar, preferencialmente das 09h às 16h, presencial</t>
+  </si>
+  <si>
+    <t>Flexível, horário flexível, agenda flexível, escolha de horários, horário ajustável, horário variável, horário negociável, horário adaptável, horário customizável, horário pessoal, horário modulável, horário opcional, horário autônomo, horário livre, horário maleável, horário mutável, horário preferencial, horário customizado, horário ajustável, horários flexíveis, trabalho flexível, horas flexíveis, horário de trabalho flexível, flexibilidade de horário, flexibilidade de agenda, flexibilidade de trabalho, flexibilidade de horas, horário de entrada flexível, horário de saída flexível, horário de expediente flexível, jornada flexível, jornada de trabalho flexível, horários ajustáveis, horários variáveis, horários negociáveis, horários adaptáveis, horários customizáveis, horários pessoais, horários moduláveis, horários opcionais, horários autônomos, horários livres, horários maleáveis, horários mutáveis, horários preferenciais, horários customizados, horários ajustáveis, jornada de trabalho variável, jornada de trabalho negociável, jornada de trabalho adaptável, jornada de trabalho customizável, jornada de trabalho autônoma, jornada de trabalho livre, jornada de trabalho maleável, jornada de trabalho mutável, jornada de trabalho preferencial, jornada de trabalho customizada, jornada ajustável, jornada variável, jornada negociável, jornada adaptável, jornada customizável, jornada autônoma, jornada livre, jornada maleável, jornada mutável, jornada preferencial, jornada customizada, escala flexível, escala variável, escala negociável, escala adaptável, escala customizável, escala pessoal, escala modulável, escala opcional, escala autônoma, escala livre, escala maleável, escala mutável, escala preferencial, escala customizada, turnos flexíveis, turnos variáveis, turnos negociáveis, turnos adaptáveis, turnos customizáveis, turnos pessoais, turnos moduláveis, turnos opcionais, turnos autônomos, turnos livres, turnos maleáveis, turnos mutáveis, turnos preferenciais, turnos customizados, horários de trabalho ajustáveis, horários de trabalho variáveis, horários de trabalho negociáveis, horários de trabalho adaptáveis, horários de trabalho customizáveis, horários de trabalho livres.</t>
+  </si>
+  <si>
+    <t>Full-time, full-time, tempo integral, jornada completa, carga horária completa, horário integral, trabalho em tempo integral, jornada de trabalho integral, carga horária total, trabalho de tempo integral, tempo total, jornada completa de trabalho, full-time, trabalho a tempo inteiro, carga horária plena, horário completo, horário integral, jornada completa de horas, horário de trabalho completo, full-time job, tempo pleno, jornada de tempo integral, trabalho a tempo integral, carga de trabalho integral, jornada de trabalho total, full-time position, tempo inteiro, jornada integral, horário de expediente completo, trabalho de carga integral, horário total, horário de trabalho integral, jornada de expediente integral, carga integral, tempo de trabalho integral, jornada diária completa, horário de trabalho de tempo integral, trabalho full-time, tempo integral de trabalho, jornada diária de tempo integral, trabalho com carga horária integral, jornada de trabalho em tempo integral, horário de trabalho de jornada completa, tempo integral de jornada, carga horária total de trabalho, jornada total de tempo, trabalho a tempo pleno, horário de trabalho a tempo integral, carga horária integral, jornada completa de tempo</t>
+  </si>
+  <si>
+    <t>A combinar, Horário a definir, Horário flexível, A definir, A combinar, Flexível, Horário negociável, Horas variáveis, Horário ajustável, Preferencialmente, Sob consulta, De acordo com disponibilidade, A ser acordado, Horário indefinido, Horário variável, Sem horário fixo, A ser definido, Flexibilidade de horário, Horário por definir, Horário negociável, Dias e horários a combinar, A combinar, a definir, a negociar, a ser combinado, a ser definido, a ser negociado, horário a combinar, horário a ser combinado, a ajustar, a acordar, a determinar, a acertar, a estipular, a decidir, a tratar, a resolver, a combinar posteriormente, a alinhar, a ser acordado, a ser estipulado, a ser decidido, a ser ajustado, a ser resolvido, a ser acertado, horário a ser definido, horário a ser negociado, horário a ser ajustado, horário a ser acordado, horário a ser resolvido, horário a ser estipulado, horário a combinar posteriormente, horário a ajustar, horário a tratar, horário a decidir, horário a resolver, horário a alinhar, horário a acertar, horário a determinar, horário a estipular, a ajustar com o gestor, a definir com o gestor, a negociar com o gestor, a acertar com o gestor, a combinar com o gestor, a decidir com o gestor, a resolver com o gestor, horário a combinar com o gestor, horário a definir com o gestor, horário a negociar com o gestor, horário a acertar com o gestor, horário a ajustar com o gestor, horário a tratar com o gestor, horário a alinhar com o gestor, horário a estipular com o gestor, horário a decidir com o gestor, a negociar diretamente, a definir diretamente, a combinar diretamente, a ajustar diretamente, a resolver diretamente, horário a negociar diretamente, horário a definir diretamente, horário a ajustar diretamente, horário a resolver diretamente, horário a combinar diretamente, a tratar diretamente, a acertar diretamente, a alinhar diretamente, a estipular diretamente</t>
+  </si>
+  <si>
+    <t>20h semanais, 20 horas semanais, 20 horas por semana, carga horária de 20 horas semanais, 20h por semana, 20 horas de trabalho semanais, jornada de 20 horas semanais, 20h de trabalho semanal, trabalho de 20 horas por semana, 20h de carga horária semanal, 20 horas semanais de trabalho, 20h semanais de trabalho, jornada semanal de 20 horas, 20 horas de carga horária semanal, carga horária semanal de 20h, 20 horas de jornada semanal, 20h semanais de carga horária, 20 horas de trabalho semanal, carga horária de 20 horas semanais, 20h de jornada semanal, 20 horas semanais de jornada, jornada de trabalho de 20 horas semanais, 20 horas por semana de trabalho, trabalho com 20h semanais, carga horária de 20h por semana, jornada de 20h semanais, 20 horas de trabalho, 20 horas de carga semanal, 20h de jornada de trabalho semanal, 20 horas semanal de carga horária, carga horária semanal de 20 horas, 20 horas de carga horária semanal, trabalho com carga de 20h semanais, 20h de carga semanal, 20 horas semanais de carga, 20h semanais de jornada, jornada de 20 horas de trabalho semanal, carga horária de trabalho de 20 horas semanais, 20 horas semanais para trabalho, 20h semanais de jornada de trabalho, trabalho de 20 horas semanais, carga horária de trabalho de 20 horas por semana, jornada de 20 horas semanais, carga semanal de 20 horas, trabalho com carga horária de 20 horas semanais, 20 horas por semana de carga horária, jornada de trabalho semanal de 20 horas, 20 horas de jornada semanal, 20h de trabalho semanal, carga horária semanal de 20h, jornada semanal de 20 horas, 20 horas de trabalho semanalmente, trabalho de 20 horas semanais, carga horária semanal de 20 horas, 20h de carga semanal, 20 horas semanais de carga horária, trabalho com carga horária semanal de 20h, 20 horas semanais de trabalho, jornada de carga horária de 20 horas semanais, 20h semanais de trabalho, 20 horas de carga semanalmente, carga horária de 20h semanais, jornada de 20 horas de trabalho semanalmente, 20h semanais de carga horária</t>
+  </si>
+  <si>
+    <t>6h diárias,6 horas diárias de segunda-feira a sexta-feira,6h/dia (segunda-sexta),6h/dia,6 horas diárias em horário comercial, 6 horas diárias, jornada de 6 horas diárias, 6 horas por dia, 6h de trabalho diário, trabalho de 6 horas diárias, carga horária de 6 horas diárias, 6h por dia, 6 horas de trabalho diário, 6 horas diárias de trabalho, 6h de jornada diária, 6h diárias de trabalho, jornada diária de 6 horas, 6 horas de carga diária, carga diária de 6 horas, 6h de carga horária diária, 6 horas por jornada diária, 6 horas diárias de carga horária, trabalho com 6h diárias, 6 horas de jornada diária, carga horária de 6h diárias, 6 horas diárias de jornada, 6h diárias de carga horária, jornada de trabalho de 6 horas diárias, 6 horas de trabalho diárias, carga de 6 horas diárias, 6h diárias de jornada de trabalho, jornada diária de 6h, trabalho de 6 horas por dia, 6h por jornada diária, 6 horas diárias de trabalho, 6 horas de trabalho por dia, jornada de 6 horas de trabalho, carga horária diária de 6 horas, 6 horas diárias de jornada de trabalho, 6h de jornada de trabalho diária, 6h de trabalho por dia, jornada de 6 horas diárias de trabalho, 6 horas diárias de carga, carga de jornada de 6 horas diárias, 6 horas diárias de trabalho, 6h de carga horária diária, jornada de trabalho de 6 horas por dia, 6 horas de carga de trabalho diária, 6 horas de trabalho diárias, carga horária diária de 6h, 6 horas diárias para trabalho, jornada diária de trabalho de 6 horas, carga diária de trabalho de 6 horas, 6 horas diárias para jornada, 6 horas diárias de trabalho, trabalho com jornada de 6 horas diárias, 6h diárias de trabalho, carga horária de 6 horas por dia, 6 horas de trabalho por jornada diária, jornada diária de carga horária de 6 horas, 6h diárias de jornada, 6 horas diárias de carga de trabalho, jornada de 6 horas diárias para trabalho, 6 horas de carga diária de trabalho, trabalho com carga de 6h diárias</t>
+  </si>
+  <si>
+    <t>4h diárias, 4 horas diárias, jornada de 4 horas diárias, 4 horas por dia, 4h de trabalho diário, trabalho de 4 horas diárias, carga horária de 4 horas diárias, 4h por dia, 4 horas de trabalho diário, 4 horas diárias de trabalho, 4h de jornada diária, 4h diárias de trabalho, jornada diária de 4 horas, 4 horas de carga diária, carga diária de 4 horas, 4h de carga horária diária, 4 horas por jornada diária, 4 horas diárias de carga horária, trabalho com 4h diárias, 4 horas de jornada diária, carga horária de 4h diárias, 4 horas diárias de jornada, 4h diárias de carga horária, jornada de trabalho de 4 horas diárias, 4 horas de trabalho diárias, carga de 4 horas diárias, 4h diárias de jornada de trabalho, jornada diária de 4h, trabalho de 4 horas por dia, 4h por jornada diária, 4 horas diárias de trabalho, 4 horas de trabalho por dia, jornada de 4 horas de trabalho, carga horária diária de 4 horas, 4 horas diárias de jornada de trabalho, 4h de jornada de trabalho diária, 4h de trabalho por dia, jornada de 4 horas diárias de trabalho, 4 horas de carga de trabalho diária, 4 horas diárias para trabalho, carga diária de trabalho de 4 horas, 4 horas diárias para jornada, 4 horas diárias de trabalho, trabalho com jornada de 4 horas diárias, 4h diárias de trabalho, carga horária de 4 horas por dia, 4 horas de trabalho por jornada diária, jornada diária de carga horária de 4 horas, 4h diárias de jornada, 4 horas diárias de carga de trabalho, jornada de 4 horas diárias para trabalho, 4 horas de carga diária de trabalho, trabalho com carga de 4h diárias, carga de 4 horas diárias</t>
+  </si>
+  <si>
+    <t>30h semanais,estágio 30h,30h,30h semanais, 30 horas semanais, 30 horas por semana, carga horária de 30 horas semanais, 30h por semana, 30 horas de trabalho semanais, jornada de 30 horas semanais, 30h de trabalho semanal, trabalho de 30 horas por semana, 30h de carga horária semanal, 30 horas semanais de trabalho, 30h semanais de trabalho, jornada semanal de 30 horas, 30 horas de carga horária semanal, carga horária semanal de 30h, 30 horas de jornada semanal, 30h semanais de carga horária, 30 horas de trabalho semanal, carga horária de 30 horas semanais, 30h de jornada semanal, 30 horas semanais de jornada, jornada de trabalho de 30 horas semanais, 30 horas por semana de trabalho, trabalho com 30h semanais, carga horária de 30h por semana, jornada de 30h semanais, 30 horas de trabalho, 30 horas de carga semanal, 30h de jornada de trabalho semanal, 30 horas semanal de carga horária, carga horária semanal de 30 horas, 30 horas de carga horária semanal, trabalho com carga de 30h semanais, 30h de carga semanal, 30 horas semanais de carga, 30h semanais de jornada, jornada de 30 horas de trabalho semanal, carga horária de trabalho de 30 horas semanais, 30 horas semanais para trabalho, 30h semanais de jornada de trabalho, trabalho de 30 horas semanais, carga horária de trabalho de 30 horas por semana, jornada de 30 horas semanais, carga semanal de 30 horas, trabalho com carga horária de 30 horas semanais, 30 horas por semana de carga horária, jornada de trabalho semanal de 30 horas, 30 horas de jornada semanal, 30h de trabalho semanal, carga horária semanal de 30h, jornada semanal de 30 horas, 30 horas de trabalho semanalmente, trabalho de 30 horas semanais, carga horária semanal de 30 horas, 30h de carga semanal, 30 horas semanais de carga horária, trabalho com carga horária semanal de 30h, 30 horas semanais de trabalho, jornada de carga horária de 30 horas semanais, 30h semanais de trabalho, 30 horas de carga semanalmente, carga horária de 30h semanais, jornada de 30 horas de trabalho semanalmente, 30h semanais de carga horária</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,6 +686,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -692,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -713,6 +733,10 @@
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,22 +1075,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E167ACBD-3E81-4E70-A20B-06ACABE150DA}">
-  <dimension ref="A1:G165"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1074,33 +1098,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
+      </c>
+      <c r="D2" t="s">
+        <v>200</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1108,16 +1132,16 @@
         <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>147</v>
+        <v>173</v>
+      </c>
+      <c r="D3" t="s">
+        <v>199</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1125,311 +1149,325 @@
         <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
+      </c>
+      <c r="D4" t="s">
+        <v>198</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
+      </c>
+      <c r="D5" t="s">
+        <v>197</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
+      </c>
+      <c r="D6" t="s">
+        <v>196</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
+      </c>
+      <c r="D7" t="s">
+        <v>203</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>152</v>
+        <v>161</v>
+      </c>
+      <c r="D8" t="s">
+        <v>207</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
+      </c>
+      <c r="D9" t="s">
+        <v>206</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>164</v>
+      </c>
+      <c r="D11" t="s">
+        <v>208</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
+      </c>
+      <c r="D12" t="s">
+        <v>201</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>50</v>
@@ -1438,7 +1476,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>41</v>
@@ -1447,7 +1485,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>63</v>
@@ -1456,7 +1494,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>65</v>
@@ -1465,7 +1503,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>60</v>
@@ -1474,7 +1512,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>36</v>
@@ -1483,7 +1521,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>33</v>
@@ -1492,7 +1530,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>66</v>
@@ -1501,7 +1539,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>40</v>
@@ -1510,7 +1548,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>37</v>
@@ -1519,7 +1557,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>31</v>
@@ -1528,7 +1566,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>48</v>
@@ -1537,7 +1575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>144</v>
@@ -1546,7 +1584,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>56</v>
@@ -1555,7 +1593,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>70</v>
@@ -1564,7 +1602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>67</v>
@@ -1573,7 +1611,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>80</v>
@@ -1582,7 +1620,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>35</v>
@@ -1591,7 +1629,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>69</v>
@@ -1600,16 +1638,16 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>28</v>
@@ -1618,7 +1656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>47</v>
@@ -1627,7 +1665,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>45</v>
@@ -1636,7 +1674,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>83</v>
@@ -1645,7 +1683,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>68</v>
@@ -1654,7 +1692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>86</v>
@@ -1663,7 +1701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>8</v>
@@ -1672,7 +1710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>6</v>
@@ -1681,7 +1719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>57</v>
@@ -1690,7 +1728,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>82</v>
@@ -1699,7 +1737,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>76</v>
@@ -1708,7 +1746,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>39</v>
@@ -1717,7 +1755,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>43</v>
@@ -1726,7 +1764,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>79</v>
@@ -1735,16 +1773,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>81</v>
@@ -1753,7 +1791,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>87</v>
@@ -1762,7 +1800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>64</v>
@@ -1771,7 +1809,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
         <v>34</v>
@@ -1780,7 +1818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>85</v>
@@ -1789,7 +1827,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>84</v>
@@ -1798,7 +1836,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>52</v>
@@ -1807,7 +1845,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>62</v>
@@ -1816,116 +1854,116 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7">
       <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>142</v>
       </c>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7">
       <c r="A75" s="1"/>
       <c r="B75" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7">
       <c r="A76" s="1"/>
       <c r="B76" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7">
       <c r="A77" s="1"/>
       <c r="B77" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C77" s="2"/>
       <c r="E77" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7">
       <c r="A78" s="1"/>
       <c r="B78" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C78" s="2"/>
       <c r="E78" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7">
       <c r="A79" s="1"/>
       <c r="B79" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C79" s="2"/>
       <c r="E79" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7">
       <c r="A80" s="1"/>
       <c r="B80" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C80" s="2"/>
       <c r="E80" s="7"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5">
       <c r="A81" s="1"/>
       <c r="B81" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C81" s="2"/>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5">
       <c r="A82" s="1"/>
       <c r="B82" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C82" s="2"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5">
       <c r="A83" s="1"/>
       <c r="B83" s="2" t="s">
         <v>78</v>
@@ -1933,393 +1971,391 @@
       <c r="C83" s="2"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5">
       <c r="A84" s="1"/>
       <c r="B84" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C84" s="2"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5">
       <c r="A85" s="1"/>
       <c r="B85" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C85" s="2"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
+      <c r="D86" s="4"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5">
       <c r="A87" s="4"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5">
       <c r="A88" s="4"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5">
       <c r="A89" s="4"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5">
       <c r="A90" s="4"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5">
       <c r="A91" s="4"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5">
       <c r="A92" s="4"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5">
       <c r="A93" s="4"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5">
       <c r="A94" s="4"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5">
       <c r="A95" s="4"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5">
       <c r="A96" s="4"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5">
       <c r="A97" s="4"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5">
       <c r="A98" s="4"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5">
       <c r="A99" s="4"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5">
       <c r="A100" s="4"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5">
       <c r="A101" s="4"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5">
       <c r="A102" s="4"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5">
       <c r="A103" s="4"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5">
       <c r="A104" s="4"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5">
       <c r="A105" s="4"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
-      <c r="D105" s="4"/>
+      <c r="D105" s="2"/>
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:4">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:4">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:4">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:4">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:4">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:4">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:4">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:4">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:4">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:4">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:4">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:4">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:4">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:4">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:4">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:4">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:4">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:4">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:4">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:4">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:4">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:4">
       <c r="D134" s="2"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:4">
       <c r="D135" s="2"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:4">
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:4">
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:4">
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:4">
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:4">
       <c r="D140" s="2"/>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:4">
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:4">
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:4">
       <c r="D143" s="2"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:4">
       <c r="D144" s="2"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:4">
       <c r="D145" s="2"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:4">
       <c r="D146" s="2"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:4">
       <c r="D147" s="2"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:4">
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:4">
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:4">
       <c r="D150" s="2"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:4">
       <c r="D151" s="2"/>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:4">
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:4">
       <c r="D153" s="2"/>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:4">
       <c r="D154" s="2"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:4">
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:4">
       <c r="D156" s="2"/>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:4">
       <c r="D157" s="2"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:4">
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:4">
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:4">
       <c r="D160" s="2"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:4">
       <c r="D161" s="2"/>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:4">
       <c r="D162" s="2"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:4">
       <c r="D163" s="2"/>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:4">
       <c r="D164" s="2"/>
-    </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D165" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E177">

--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denil\OneDrive\Documentos\GitHub\CHATBOT_CEE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0567A8-D87C-43AB-B422-4C62E952CBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6916D427-AB1A-4768-817E-6B29EFDF83EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="720" windowWidth="11700" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="3" r:id="rId1"/>
@@ -634,9 +634,6 @@
     <t>Flexível, horário flexível, agenda flexível, escolha de horários, horário ajustável, horário variável, horário negociável, horário adaptável, horário customizável, horário pessoal, horário modulável, horário opcional, horário autônomo, horário livre, horário maleável, horário mutável, horário preferencial, horário customizado, horário ajustável, horários flexíveis, trabalho flexível, horas flexíveis, horário de trabalho flexível, flexibilidade de horário, flexibilidade de agenda, flexibilidade de trabalho, flexibilidade de horas, horário de entrada flexível, horário de saída flexível, horário de expediente flexível, jornada flexível, jornada de trabalho flexível, horários ajustáveis, horários variáveis, horários negociáveis, horários adaptáveis, horários customizáveis, horários pessoais, horários moduláveis, horários opcionais, horários autônomos, horários livres, horários maleáveis, horários mutáveis, horários preferenciais, horários customizados, horários ajustáveis, jornada de trabalho variável, jornada de trabalho negociável, jornada de trabalho adaptável, jornada de trabalho customizável, jornada de trabalho autônoma, jornada de trabalho livre, jornada de trabalho maleável, jornada de trabalho mutável, jornada de trabalho preferencial, jornada de trabalho customizada, jornada ajustável, jornada variável, jornada negociável, jornada adaptável, jornada customizável, jornada autônoma, jornada livre, jornada maleável, jornada mutável, jornada preferencial, jornada customizada, escala flexível, escala variável, escala negociável, escala adaptável, escala customizável, escala pessoal, escala modulável, escala opcional, escala autônoma, escala livre, escala maleável, escala mutável, escala preferencial, escala customizada, turnos flexíveis, turnos variáveis, turnos negociáveis, turnos adaptáveis, turnos customizáveis, turnos pessoais, turnos moduláveis, turnos opcionais, turnos autônomos, turnos livres, turnos maleáveis, turnos mutáveis, turnos preferenciais, turnos customizados, horários de trabalho ajustáveis, horários de trabalho variáveis, horários de trabalho negociáveis, horários de trabalho adaptáveis, horários de trabalho customizáveis, horários de trabalho livres.</t>
   </si>
   <si>
-    <t>Full-time, full-time, tempo integral, jornada completa, carga horária completa, horário integral, trabalho em tempo integral, jornada de trabalho integral, carga horária total, trabalho de tempo integral, tempo total, jornada completa de trabalho, full-time, trabalho a tempo inteiro, carga horária plena, horário completo, horário integral, jornada completa de horas, horário de trabalho completo, full-time job, tempo pleno, jornada de tempo integral, trabalho a tempo integral, carga de trabalho integral, jornada de trabalho total, full-time position, tempo inteiro, jornada integral, horário de expediente completo, trabalho de carga integral, horário total, horário de trabalho integral, jornada de expediente integral, carga integral, tempo de trabalho integral, jornada diária completa, horário de trabalho de tempo integral, trabalho full-time, tempo integral de trabalho, jornada diária de tempo integral, trabalho com carga horária integral, jornada de trabalho em tempo integral, horário de trabalho de jornada completa, tempo integral de jornada, carga horária total de trabalho, jornada total de tempo, trabalho a tempo pleno, horário de trabalho a tempo integral, carga horária integral, jornada completa de tempo</t>
-  </si>
-  <si>
     <t>A combinar, Horário a definir, Horário flexível, A definir, A combinar, Flexível, Horário negociável, Horas variáveis, Horário ajustável, Preferencialmente, Sob consulta, De acordo com disponibilidade, A ser acordado, Horário indefinido, Horário variável, Sem horário fixo, A ser definido, Flexibilidade de horário, Horário por definir, Horário negociável, Dias e horários a combinar, A combinar, a definir, a negociar, a ser combinado, a ser definido, a ser negociado, horário a combinar, horário a ser combinado, a ajustar, a acordar, a determinar, a acertar, a estipular, a decidir, a tratar, a resolver, a combinar posteriormente, a alinhar, a ser acordado, a ser estipulado, a ser decidido, a ser ajustado, a ser resolvido, a ser acertado, horário a ser definido, horário a ser negociado, horário a ser ajustado, horário a ser acordado, horário a ser resolvido, horário a ser estipulado, horário a combinar posteriormente, horário a ajustar, horário a tratar, horário a decidir, horário a resolver, horário a alinhar, horário a acertar, horário a determinar, horário a estipular, a ajustar com o gestor, a definir com o gestor, a negociar com o gestor, a acertar com o gestor, a combinar com o gestor, a decidir com o gestor, a resolver com o gestor, horário a combinar com o gestor, horário a definir com o gestor, horário a negociar com o gestor, horário a acertar com o gestor, horário a ajustar com o gestor, horário a tratar com o gestor, horário a alinhar com o gestor, horário a estipular com o gestor, horário a decidir com o gestor, a negociar diretamente, a definir diretamente, a combinar diretamente, a ajustar diretamente, a resolver diretamente, horário a negociar diretamente, horário a definir diretamente, horário a ajustar diretamente, horário a resolver diretamente, horário a combinar diretamente, a tratar diretamente, a acertar diretamente, a alinhar diretamente, a estipular diretamente</t>
   </si>
   <si>
@@ -650,6 +647,9 @@
   </si>
   <si>
     <t>30h semanais,estágio 30h,30h,30h semanais, 30 horas semanais, 30 horas por semana, carga horária de 30 horas semanais, 30h por semana, 30 horas de trabalho semanais, jornada de 30 horas semanais, 30h de trabalho semanal, trabalho de 30 horas por semana, 30h de carga horária semanal, 30 horas semanais de trabalho, 30h semanais de trabalho, jornada semanal de 30 horas, 30 horas de carga horária semanal, carga horária semanal de 30h, 30 horas de jornada semanal, 30h semanais de carga horária, 30 horas de trabalho semanal, carga horária de 30 horas semanais, 30h de jornada semanal, 30 horas semanais de jornada, jornada de trabalho de 30 horas semanais, 30 horas por semana de trabalho, trabalho com 30h semanais, carga horária de 30h por semana, jornada de 30h semanais, 30 horas de trabalho, 30 horas de carga semanal, 30h de jornada de trabalho semanal, 30 horas semanal de carga horária, carga horária semanal de 30 horas, 30 horas de carga horária semanal, trabalho com carga de 30h semanais, 30h de carga semanal, 30 horas semanais de carga, 30h semanais de jornada, jornada de 30 horas de trabalho semanal, carga horária de trabalho de 30 horas semanais, 30 horas semanais para trabalho, 30h semanais de jornada de trabalho, trabalho de 30 horas semanais, carga horária de trabalho de 30 horas por semana, jornada de 30 horas semanais, carga semanal de 30 horas, trabalho com carga horária de 30 horas semanais, 30 horas por semana de carga horária, jornada de trabalho semanal de 30 horas, 30 horas de jornada semanal, 30h de trabalho semanal, carga horária semanal de 30h, jornada semanal de 30 horas, 30 horas de trabalho semanalmente, trabalho de 30 horas semanais, carga horária semanal de 30 horas, 30h de carga semanal, 30 horas semanais de carga horária, trabalho com carga horária semanal de 30h, 30 horas semanais de trabalho, jornada de carga horária de 30 horas semanais, 30h semanais de trabalho, 30 horas de carga semanalmente, carga horária de 30h semanais, jornada de 30 horas de trabalho semanalmente, 30h semanais de carga horária</t>
+  </si>
+  <si>
+    <t>Full-time, full-time, Fulltime, tempo integral, jornada completa, carga horária completa, horário integral, trabalho em tempo integral, jornada de trabalho integral, carga horária total, trabalho de tempo integral, tempo total, jornada completa de trabalho, full-time, trabalho a tempo inteiro, carga horária plena, horário completo, horário integral, jornada completa de horas, horário de trabalho completo, full-time job, tempo pleno, jornada de tempo integral, trabalho a tempo integral, carga de trabalho integral, jornada de trabalho total, full-time position, tempo inteiro, jornada integral, horário de expediente completo, trabalho de carga integral, horário total, horário de trabalho integral, jornada de expediente integral, carga integral, tempo de trabalho integral, jornada diária completa, horário de trabalho de tempo integral, trabalho full-time, tempo integral de trabalho, jornada diária de tempo integral, trabalho com carga horária integral, jornada de trabalho em tempo integral, horário de trabalho de jornada completa, tempo integral de jornada, carga horária total de trabalho, jornada total de tempo, trabalho a tempo pleno, horário de trabalho a tempo integral, carga horária integral, jornada completa de tempo</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:G164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1197,7 +1197,7 @@
         <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -1212,7 +1212,7 @@
         <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -1227,7 +1227,7 @@
         <v>162</v>
       </c>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>125</v>
@@ -1242,7 +1242,7 @@
         <v>163</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>113</v>
@@ -1257,7 +1257,7 @@
         <v>164</v>
       </c>
       <c r="D11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>26</v>
@@ -1302,7 +1302,7 @@
         <v>167</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>93</v>

--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denil\OneDrive\Documentos\GitHub\CHATBOT_CEE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6916D427-AB1A-4768-817E-6B29EFDF83EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE644716-458F-4BC7-A1F8-94A54580B13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="720" windowWidth="11700" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="233">
   <si>
     <t>Localidade</t>
   </si>
@@ -157,9 +157,6 @@
     <t>Root cause analysis</t>
   </si>
   <si>
-    <t>Capacidade de comunicação</t>
-  </si>
-  <si>
     <t>Perfil focado</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
     <t>Cloud</t>
   </si>
   <si>
-    <t>Visualization</t>
-  </si>
-  <si>
     <t>GTM</t>
   </si>
   <si>
@@ -592,9 +586,6 @@
     <t>Estudante de,Universitário</t>
   </si>
   <si>
-    <t>Linguagem de programação</t>
-  </si>
-  <si>
     <t>Linguagens de programação</t>
   </si>
   <si>
@@ -650,6 +641,87 @@
   </si>
   <si>
     <t>Full-time, full-time, Fulltime, tempo integral, jornada completa, carga horária completa, horário integral, trabalho em tempo integral, jornada de trabalho integral, carga horária total, trabalho de tempo integral, tempo total, jornada completa de trabalho, full-time, trabalho a tempo inteiro, carga horária plena, horário completo, horário integral, jornada completa de horas, horário de trabalho completo, full-time job, tempo pleno, jornada de tempo integral, trabalho a tempo integral, carga de trabalho integral, jornada de trabalho total, full-time position, tempo inteiro, jornada integral, horário de expediente completo, trabalho de carga integral, horário total, horário de trabalho integral, jornada de expediente integral, carga integral, tempo de trabalho integral, jornada diária completa, horário de trabalho de tempo integral, trabalho full-time, tempo integral de trabalho, jornada diária de tempo integral, trabalho com carga horária integral, jornada de trabalho em tempo integral, horário de trabalho de jornada completa, tempo integral de jornada, carga horária total de trabalho, jornada total de tempo, trabalho a tempo pleno, horário de trabalho a tempo integral, carga horária integral, jornada completa de tempo</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>Algoritmos</t>
+  </si>
+  <si>
+    <t>Solidworks</t>
+  </si>
+  <si>
+    <t>Solid Edge</t>
+  </si>
+  <si>
+    <t>AutoCad</t>
+  </si>
+  <si>
+    <t>Revit</t>
+  </si>
+  <si>
+    <t>Experiência</t>
+  </si>
+  <si>
+    <t>ORM Prisma</t>
+  </si>
+  <si>
+    <t>TypeORM</t>
+  </si>
+  <si>
+    <t>Ensino Superior em,Formado</t>
+  </si>
+  <si>
+    <t>Adobe Photoshop</t>
+  </si>
+  <si>
+    <t>Organização</t>
+  </si>
+  <si>
+    <t>Query SQL</t>
+  </si>
+  <si>
+    <t>HTML5</t>
+  </si>
+  <si>
+    <t>MS Project</t>
+  </si>
+  <si>
+    <t>Relacionamento Interpessoal</t>
+  </si>
+  <si>
+    <t>Superior completo em,Formado</t>
+  </si>
+  <si>
+    <t>Ferramentas de Dados</t>
+  </si>
+  <si>
+    <t>Postgre</t>
+  </si>
+  <si>
+    <t>Banco de Dados</t>
+  </si>
+  <si>
+    <t>Power BI</t>
+  </si>
+  <si>
+    <t>Power Point</t>
+  </si>
+  <si>
+    <t>Manipulação de Dados</t>
+  </si>
+  <si>
+    <t>Trabalho em Equipe</t>
+  </si>
+  <si>
+    <t>Análise de Dados</t>
   </si>
 </sst>
 </file>
@@ -1077,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E167ACBD-3E81-4E70-A20B-06ACABE150DA}">
   <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1098,10 +1170,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
@@ -1112,13 +1184,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>21</v>
@@ -1129,13 +1201,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
@@ -1146,13 +1218,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
@@ -1164,40 +1236,40 @@
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -1206,13 +1278,13 @@
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -1221,43 +1293,43 @@
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>26</v>
@@ -1266,154 +1338,154 @@
     <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>27</v>
@@ -1422,22 +1494,22 @@
     <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>184</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>16</v>
@@ -1446,43 +1518,49 @@
     <row r="26" spans="1:5">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1491,85 +1569,85 @@
         <v>63</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>15</v>
@@ -1578,25 +1656,25 @@
     <row r="40" spans="1:5">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>25</v>
@@ -1605,52 +1683,52 @@
     <row r="43" spans="1:5">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>14</v>
@@ -1659,34 +1737,34 @@
     <row r="49" spans="1:5">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>22</v>
@@ -1695,7 +1773,7 @@
     <row r="53" spans="1:5">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>13</v>
@@ -1704,7 +1782,7 @@
     <row r="54" spans="1:5">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>10</v>
@@ -1713,7 +1791,7 @@
     <row r="55" spans="1:5">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>12</v>
@@ -1722,52 +1800,52 @@
     <row r="56" spans="1:5">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>24</v>
@@ -1776,25 +1854,25 @@
     <row r="62" spans="1:5">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>17</v>
@@ -1803,16 +1881,16 @@
     <row r="65" spans="1:7">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>23</v>
@@ -1821,34 +1899,34 @@
     <row r="67" spans="1:7">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>18</v>
@@ -1857,28 +1935,28 @@
     <row r="71" spans="1:7">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1"/>
-      <c r="B72" s="1" t="s">
-        <v>149</v>
+      <c r="B72" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1"/>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>174</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -1887,26 +1965,26 @@
         <v>175</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1"/>
       <c r="B75" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1"/>
       <c r="B76" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -1914,35 +1992,33 @@
       <c r="B77" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C77" s="2"/>
       <c r="E77" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1"/>
       <c r="B78" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>181</v>
+      </c>
       <c r="E78" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1"/>
       <c r="B79" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C79" s="2"/>
       <c r="E79" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1"/>
       <c r="B80" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C80" s="2"/>
       <c r="E80" s="7"/>
@@ -1950,7 +2026,7 @@
     <row r="81" spans="1:5">
       <c r="A81" s="1"/>
       <c r="B81" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C81" s="2"/>
       <c r="E81" s="7"/>
@@ -1958,7 +2034,7 @@
     <row r="82" spans="1:5">
       <c r="A82" s="1"/>
       <c r="B82" s="2" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C82" s="2"/>
       <c r="E82" s="1"/>
@@ -1966,7 +2042,7 @@
     <row r="83" spans="1:5">
       <c r="A83" s="1"/>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="C83" s="2"/>
       <c r="E83" s="1"/>
@@ -1974,7 +2050,7 @@
     <row r="84" spans="1:5">
       <c r="A84" s="1"/>
       <c r="B84" s="2" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C84" s="2"/>
       <c r="E84" s="1"/>
@@ -1982,158 +2058,202 @@
     <row r="85" spans="1:5">
       <c r="A85" s="1"/>
       <c r="B85" s="2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="C85" s="2"/>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1"/>
-      <c r="B86" s="2"/>
+      <c r="B86" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C86" s="2"/>
       <c r="D86" s="4"/>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="4"/>
-      <c r="B87" s="2"/>
+      <c r="B87" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="C87" s="2"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="4"/>
-      <c r="B88" s="2"/>
+      <c r="B88" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="C88" s="2"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="4"/>
-      <c r="B89" s="2"/>
+      <c r="B89" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="C89" s="2"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="4"/>
-      <c r="B90" s="2"/>
+      <c r="B90" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="C90" s="2"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="4"/>
-      <c r="B91" s="2"/>
+      <c r="B91" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="C91" s="2"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="4"/>
-      <c r="B92" s="2"/>
+      <c r="B92" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="C92" s="2"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="4"/>
-      <c r="B93" s="2"/>
+      <c r="B93" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="C93" s="2"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="4"/>
-      <c r="B94" s="2"/>
+      <c r="B94" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="C94" s="2"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="4"/>
-      <c r="B95" s="2"/>
+      <c r="B95" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="C95" s="2"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="4"/>
-      <c r="B96" s="2"/>
+      <c r="B96" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="C96" s="2"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="4"/>
-      <c r="B97" s="2"/>
+      <c r="B97" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="C97" s="2"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="4"/>
-      <c r="B98" s="2"/>
+      <c r="B98" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="C98" s="2"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="4"/>
-      <c r="B99" s="2"/>
+      <c r="B99" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="C99" s="2"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="4"/>
-      <c r="B100" s="2"/>
+      <c r="B100" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="C100" s="2"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="4"/>
-      <c r="B101" s="2"/>
+      <c r="B101" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="C101" s="2"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="4"/>
-      <c r="B102" s="2"/>
+      <c r="B102" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="C102" s="2"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="4"/>
-      <c r="B103" s="2"/>
+      <c r="B103" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="C103" s="2"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="4"/>
-      <c r="B104" s="2"/>
+      <c r="B104" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="C104" s="2"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="4"/>
-      <c r="B105" s="2"/>
+      <c r="B105" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="4"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="B106" s="2"/>
+      <c r="B106" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="B107" s="2"/>
+      <c r="B107" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
     </row>
@@ -2233,68 +2353,66 @@
       <c r="D126" s="2"/>
     </row>
     <row r="127" spans="2:4">
-      <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
     </row>
     <row r="128" spans="2:4">
-      <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" spans="2:4">
-      <c r="B129" s="2"/>
+    <row r="129" spans="3:4">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" spans="2:4">
-      <c r="B130" s="2"/>
+    <row r="130" spans="3:4">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" spans="2:4">
+    <row r="131" spans="3:4">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="2:4">
+    <row r="132" spans="3:4">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
     </row>
-    <row r="133" spans="2:4">
+    <row r="133" spans="3:4">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
     </row>
-    <row r="134" spans="2:4">
+    <row r="134" spans="3:4">
+      <c r="C134" s="2"/>
       <c r="D134" s="2"/>
     </row>
-    <row r="135" spans="2:4">
+    <row r="135" spans="3:4">
+      <c r="C135" s="2"/>
       <c r="D135" s="2"/>
     </row>
-    <row r="136" spans="2:4">
+    <row r="136" spans="3:4">
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="2:4">
+    <row r="137" spans="3:4">
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="2:4">
+    <row r="138" spans="3:4">
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="2:4">
+    <row r="139" spans="3:4">
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="2:4">
+    <row r="140" spans="3:4">
       <c r="D140" s="2"/>
     </row>
-    <row r="141" spans="2:4">
+    <row r="141" spans="3:4">
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="2:4">
+    <row r="142" spans="3:4">
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="2:4">
+    <row r="143" spans="3:4">
       <c r="D143" s="2"/>
     </row>
-    <row r="144" spans="2:4">
+    <row r="144" spans="3:4">
       <c r="D144" s="2"/>
     </row>
     <row r="145" spans="4:4">

--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denil\OneDrive\Documentos\GitHub\CHATBOT_CEE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e534aba7bda15645/Documentos/ITAjr/CHATBOT_CEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE644716-458F-4BC7-A1F8-94A54580B13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{EE644716-458F-4BC7-A1F8-94A54580B13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1EACB32-050E-4A4E-9680-503F672901FA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$178</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="259">
   <si>
     <t>Localidade</t>
   </si>
@@ -31,618 +36,699 @@
     <t>Requisitos</t>
   </si>
   <si>
+    <t>Substituicoes</t>
+  </si>
+  <si>
+    <t>Categorias Carga Horária</t>
+  </si>
+  <si>
     <t>Destinatários</t>
   </si>
   <si>
+    <t>Híbrido</t>
+  </si>
+  <si>
+    <t>Lógica de Programação</t>
+  </si>
+  <si>
+    <t>empreendedorismo,Espírito empreendedor</t>
+  </si>
+  <si>
+    <t>Não especificada,não mencionada,não mencionado,não informado,não informada,não especificada</t>
+  </si>
+  <si>
+    <t>3º semestre</t>
+  </si>
+  <si>
+    <t>Vale Alimentação ou Refeição,Vale Alimentação,Vale alimentação,vale alimentação,Vale-alimentação,vale-alimentação/refeição,VR ou VA,auxílo-alimentação,VR/VA,VR e/ou VA,vale refeição/alimentação,Vale Refeição,vale-refeição,Vale-refeição,Vale-refeição ou alimentação,Auxílio-Refeição,Auxílio-alimentação</t>
+  </si>
+  <si>
+    <t>Presencial</t>
+  </si>
+  <si>
+    <t>AIX</t>
+  </si>
+  <si>
+    <t>Mentalidade empreendedora,Espírito empreendedor</t>
+  </si>
+  <si>
+    <t>Flexível,flexível</t>
+  </si>
+  <si>
+    <t>2º semestre</t>
+  </si>
+  <si>
+    <t>Vale Transporte,vale transporte,Vale-Transporte,Vale Transporte,vale-transporte</t>
+  </si>
+  <si>
     <t>Remoto</t>
   </si>
   <si>
-    <t>Presencial</t>
-  </si>
-  <si>
-    <t>Híbrido</t>
+    <t>AS400</t>
+  </si>
+  <si>
+    <t>ambicioso,Ambição</t>
+  </si>
+  <si>
+    <t>4h/6h diárias,4h ou 6h diárias,4h ou 6h diárias,4h/6h diárias</t>
+  </si>
+  <si>
+    <t>1º semestre</t>
+  </si>
+  <si>
+    <t>Auxílio Pet,Auxílio Pet</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>ambiciosos,Ambição</t>
+  </si>
+  <si>
+    <t>A combinar,20, 25 ou 30 horas semanais,20, 25 ou 30 horas semanais</t>
+  </si>
+  <si>
+    <t>Química</t>
+  </si>
+  <si>
+    <t>Plano de Saúde ou Odontológico,Plano de Saúde,Plano Odontológico,clube de sáude, plano de saúde e odontológico,Assistência Médica</t>
+  </si>
+  <si>
+    <t>Banco de dados relacional e não relacional</t>
+  </si>
+  <si>
+    <t>Cursando curso superior,Universitário</t>
+  </si>
+  <si>
+    <t>A combinar,mínimo de 2 meses</t>
+  </si>
+  <si>
+    <t>Medicina</t>
+  </si>
+  <si>
+    <t>Seguro de Vida,Seguro de Vida,seguro de vida</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Cursando graduação,Universitário</t>
+  </si>
+  <si>
+    <t>Full-time, full-time, Fulltime, tempo integral, jornada completa, carga horária completa, horário integral, trabalho em tempo integral, jornada de trabalho integral, carga horária total, trabalho de tempo integral, tempo total, jornada completa de trabalho, full-time, trabalho a tempo inteiro, carga horária plena, horário completo, horário integral, jornada completa de horas, horário de trabalho completo, full-time job, tempo pleno, jornada de tempo integral, trabalho a tempo integral, carga de trabalho integral, jornada de trabalho total, full-time position, tempo inteiro, jornada integral, horário de expediente completo, trabalho de carga integral, horário total, horário de trabalho integral, jornada de expediente integral, carga integral, tempo de trabalho integral, jornada diária completa, horário de trabalho de tempo integral, trabalho full-time, tempo integral de trabalho, jornada diária de tempo integral, trabalho com carga horária integral, jornada de trabalho em tempo integral, horário de trabalho de jornada completa, tempo integral de jornada, carga horária total de trabalho, jornada total de tempo, trabalho a tempo pleno, horário de trabalho a tempo integral, carga horária integral, jornada completa de tempo</t>
+  </si>
+  <si>
+    <t>7º semestre</t>
+  </si>
+  <si>
+    <t>Previdência,Previdência</t>
+  </si>
+  <si>
+    <t>Capacidade analítica</t>
+  </si>
+  <si>
+    <t>Universitários,Universitário</t>
+  </si>
+  <si>
+    <t>4h diárias, 4 horas diárias, jornada de 4 horas diárias, 4 horas por dia, 4h de trabalho diário, trabalho de 4 horas diárias, carga horária de 4 horas diárias, 4h por dia, 4 horas de trabalho diário, 4 horas diárias de trabalho, 4h de jornada diária, 4h diárias de trabalho, jornada diária de 4 horas, 4 horas de carga diária, carga diária de 4 horas, 4h de carga horária diária, 4 horas por jornada diária, 4 horas diárias de carga horária, trabalho com 4h diárias, 4 horas de jornada diária, carga horária de 4h diárias, 4 horas diárias de jornada, 4h diárias de carga horária, jornada de trabalho de 4 horas diárias, 4 horas de trabalho diárias, carga de 4 horas diárias, 4h diárias de jornada de trabalho, jornada diária de 4h, trabalho de 4 horas por dia, 4h por jornada diária, 4 horas diárias de trabalho, 4 horas de trabalho por dia, jornada de 4 horas de trabalho, carga horária diária de 4 horas, 4 horas diárias de jornada de trabalho, 4h de jornada de trabalho diária, 4h de trabalho por dia, jornada de 4 horas diárias de trabalho, 4 horas de carga de trabalho diária, 4 horas diárias para trabalho, carga diária de trabalho de 4 horas, 4 horas diárias para jornada, 4 horas diárias de trabalho, trabalho com jornada de 4 horas diárias, 4h diárias de trabalho, carga horária de 4 horas por dia, 4 horas de trabalho por jornada diária, jornada diária de carga horária de 4 horas, 4h diárias de jornada, 4 horas diárias de carga de trabalho, jornada de 4 horas diárias para trabalho, 4 horas de carga diária de trabalho, trabalho com carga de 4h diárias, carga de 4 horas diárias</t>
+  </si>
+  <si>
+    <t>5º semestre</t>
+  </si>
+  <si>
+    <t>Auxílio Bábá,Auxílio Bábá</t>
+  </si>
+  <si>
+    <t>CI/CD</t>
+  </si>
+  <si>
+    <t>Universitário,Universitário</t>
+  </si>
+  <si>
+    <t>6h diárias,6 horas diárias de segunda-feira a sexta-feira,6h/dia (segunda-sexta),6h/dia,6 horas diárias em horário comercial, 6 horas diárias, jornada de 6 horas diárias, 6 horas por dia, 6h de trabalho diário, trabalho de 6 horas diárias, carga horária de 6 horas diárias, 6h por dia, 6 horas de trabalho diário, 6 horas diárias de trabalho, 6h de jornada diária, 6h diárias de trabalho, jornada diária de 6 horas, 6 horas de carga diária, carga diária de 6 horas, 6h de carga horária diária, 6 horas por jornada diária, 6 horas diárias de carga horária, trabalho com 6h diárias, 6 horas de jornada diária, carga horária de 6h diárias, 6 horas diárias de jornada, 6h diárias de carga horária, jornada de trabalho de 6 horas diárias, 6 horas de trabalho diárias, carga de 6 horas diárias, 6h diárias de jornada de trabalho, jornada diária de 6h, trabalho de 6 horas por dia, 6h por jornada diária, 6 horas diárias de trabalho, 6 horas de trabalho por dia, jornada de 6 horas de trabalho, carga horária diária de 6 horas, 6 horas diárias de jornada de trabalho, 6h de jornada de trabalho diária, 6h de trabalho por dia, jornada de 6 horas diárias de trabalho, 6 horas diárias de carga, carga de jornada de 6 horas diárias, 6 horas diárias de trabalho, 6h de carga horária diária, jornada de trabalho de 6 horas por dia, 6 horas de carga de trabalho diária, 6 horas de trabalho diárias, carga horária diária de 6h, 6 horas diárias para trabalho, jornada diária de trabalho de 6 horas, carga diária de trabalho de 6 horas, 6 horas diárias para jornada, 6 horas diárias de trabalho, trabalho com jornada de 6 horas diárias, 6h diárias de trabalho, carga horária de 6 horas por dia, 6 horas de trabalho por jornada diária, jornada diária de carga horária de 6 horas, 6h diárias de jornada, 6 horas diárias de carga de trabalho, jornada de 6 horas diárias para trabalho, 6 horas de carga diária de trabalho, trabalho com carga de 6h diárias</t>
+  </si>
+  <si>
+    <t>Comunicação Social</t>
+  </si>
+  <si>
+    <t>Auxílio Creche,Auxílio Creche,auxílio creche</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Cursando,Universitário</t>
+  </si>
+  <si>
+    <t>20h semanais, 20 horas semanais, 20 horas por semana, carga horária de 20 horas semanais, 20h por semana, 20 horas de trabalho semanais, jornada de 20 horas semanais, 20h de trabalho semanal, trabalho de 20 horas por semana, 20h de carga horária semanal, 20 horas semanais de trabalho, 20h semanais de trabalho, jornada semanal de 20 horas, 20 horas de carga horária semanal, carga horária semanal de 20h, 20 horas de jornada semanal, 20h semanais de carga horária, 20 horas de trabalho semanal, carga horária de 20 horas semanais, 20h de jornada semanal, 20 horas semanais de jornada, jornada de trabalho de 20 horas semanais, 20 horas por semana de trabalho, trabalho com 20h semanais, carga horária de 20h por semana, jornada de 20h semanais, 20 horas de trabalho, 20 horas de carga semanal, 20h de jornada de trabalho semanal, 20 horas semanal de carga horária, carga horária semanal de 20 horas, 20 horas de carga horária semanal, trabalho com carga de 20h semanais, 20h de carga semanal, 20 horas semanais de carga, 20h semanais de jornada, jornada de 20 horas de trabalho semanal, carga horária de trabalho de 20 horas semanais, 20 horas semanais para trabalho, 20h semanais de jornada de trabalho, trabalho de 20 horas semanais, carga horária de trabalho de 20 horas por semana, jornada de 20 horas semanais, carga semanal de 20 horas, trabalho com carga horária de 20 horas semanais, 20 horas por semana de carga horária, jornada de trabalho semanal de 20 horas, 20 horas de jornada semanal, 20h de trabalho semanal, carga horária semanal de 20h, jornada semanal de 20 horas, 20 horas de trabalho semanalmente, trabalho de 20 horas semanais, carga horária semanal de 20 horas, 20h de carga semanal, 20 horas semanais de carga horária, trabalho com carga horária semanal de 20h, 20 horas semanais de trabalho, jornada de carga horária de 20 horas semanais, 20h semanais de trabalho, 20 horas de carga semanalmente, carga horária de 20h semanais, jornada de 20 horas de trabalho semanalmente, 20h semanais de carga horária</t>
+  </si>
+  <si>
+    <t>Física</t>
+  </si>
+  <si>
+    <t>Desconto em produtos,Desconto em produtos,Parcerias e descontos,desconto em produtos,desconto em produtos,20% de desconto nos produtos Liv Up</t>
+  </si>
+  <si>
+    <t>Comunicação</t>
+  </si>
+  <si>
+    <t>Matriculado,Universitário</t>
+  </si>
+  <si>
+    <t>30h semanais,estágio 30h,30h,30h semanais, 30 horas semanais, 30 horas por semana, carga horária de 30 horas semanais, 30h por semana, 30 horas de trabalho semanais, jornada de 30 horas semanais, 30h de trabalho semanal, trabalho de 30 horas por semana, 30h de carga horária semanal, 30 horas semanais de trabalho, 30h semanais de trabalho, jornada semanal de 30 horas, 30 horas de carga horária semanal, carga horária semanal de 30h, 30 horas de jornada semanal, 30h semanais de carga horária, 30 horas de trabalho semanal, carga horária de 30 horas semanais, 30h de jornada semanal, 30 horas semanais de jornada, jornada de trabalho de 30 horas semanais, 30 horas por semana de trabalho, trabalho com 30h semanais, carga horária de 30h por semana, jornada de 30h semanais, 30 horas de trabalho, 30 horas de carga semanal, 30h de jornada de trabalho semanal, 30 horas semanal de carga horária, carga horária semanal de 30 horas, 30 horas de carga horária semanal, trabalho com carga de 30h semanais, 30h de carga semanal, 30 horas semanais de carga, 30h semanais de jornada, jornada de 30 horas de trabalho semanal, carga horária de trabalho de 30 horas semanais, 30 horas semanais para trabalho, 30h semanais de jornada de trabalho, trabalho de 30 horas semanais, carga horária de trabalho de 30 horas por semana, jornada de 30 horas semanais, carga semanal de 30 horas, trabalho com carga horária de 30 horas semanais, 30 horas por semana de carga horária, jornada de trabalho semanal de 30 horas, 30 horas de jornada semanal, 30h de trabalho semanal, carga horária semanal de 30h, jornada semanal de 30 horas, 30 horas de trabalho semanalmente, trabalho de 30 horas semanais, carga horária semanal de 30 horas, 30h de carga semanal, 30 horas semanais de carga horária, trabalho com carga horária semanal de 30h, 30 horas semanais de trabalho, jornada de carga horária de 30 horas semanais, 30h semanais de trabalho, 30 horas de carga semanalmente, carga horária de 30h semanais, jornada de 30 horas de trabalho semanalmente, 30h semanais de carga horária</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Folga no aniversário,day off de aniversário,Dia de folga no aniversário, Dayoff de aniversário, Day Off aniversário,dayoff, day off</t>
+  </si>
+  <si>
+    <t>Serverless Framework</t>
+  </si>
+  <si>
+    <t>Cursar,Universitário</t>
+  </si>
+  <si>
+    <t>A combinar,horário a combinar, preferencialmente das 09h às 16h, presencial</t>
+  </si>
+  <si>
+    <t>Engenharia Mecânica</t>
+  </si>
+  <si>
+    <t>Auxílio Home Office, Auxílio Home Office,Auxílio home office,auxílio home office</t>
+  </si>
+  <si>
+    <t>Contabilidade</t>
+  </si>
+  <si>
+    <t>Estudantes, Universitário</t>
+  </si>
+  <si>
+    <t>5 semanas,5 semanas</t>
+  </si>
+  <si>
+    <t>9º período</t>
+  </si>
+  <si>
+    <t>Totalpass,Totalpass</t>
+  </si>
+  <si>
+    <t>Controladoria de fundos</t>
+  </si>
+  <si>
+    <t>Graduação em,Formado</t>
+  </si>
+  <si>
+    <t>A combinar, Horário a definir, Horário flexível, A definir, A combinar, Flexível, Horário negociável, Horas variáveis, Horário ajustável, Preferencialmente, Sob consulta, De acordo com disponibilidade, A ser acordado, Horário indefinido, Horário variável, Sem horário fixo, A ser definido, Flexibilidade de horário, Horário por definir, Horário negociável, Dias e horários a combinar, A combinar, a definir, a negociar, a ser combinado, a ser definido, a ser negociado, horário a combinar, horário a ser combinado, a ajustar, a acordar, a determinar, a acertar, a estipular, a decidir, a tratar, a resolver, a combinar posteriormente, a alinhar, a ser acordado, a ser estipulado, a ser decidido, a ser ajustado, a ser resolvido, a ser acertado, horário a ser definido, horário a ser negociado, horário a ser ajustado, horário a ser acordado, horário a ser resolvido, horário a ser estipulado, horário a combinar posteriormente, horário a ajustar, horário a tratar, horário a decidir, horário a resolver, horário a alinhar, horário a acertar, horário a determinar, horário a estipular, a ajustar com o gestor, a definir com o gestor, a negociar com o gestor, a acertar com o gestor, a combinar com o gestor, a decidir com o gestor, a resolver com o gestor, horário a combinar com o gestor, horário a definir com o gestor, horário a negociar com o gestor, horário a acertar com o gestor, horário a ajustar com o gestor, horário a tratar com o gestor, horário a alinhar com o gestor, horário a estipular com o gestor, horário a decidir com o gestor, a negociar diretamente, a definir diretamente, a combinar diretamente, a ajustar diretamente, a resolver diretamente, horário a negociar diretamente, horário a definir diretamente, horário a ajustar diretamente, horário a resolver diretamente, horário a combinar diretamente, a tratar diretamente, a acertar diretamente, a alinhar diretamente, a estipular diretamente</t>
+  </si>
+  <si>
+    <t>Engenharia Química</t>
+  </si>
+  <si>
+    <t>Vittude,Vittude</t>
+  </si>
+  <si>
+    <t>Data Visualization</t>
+  </si>
+  <si>
+    <t>Ensino superior em andamento,Universitário</t>
+  </si>
+  <si>
+    <t>Flexível, horário flexível, agenda flexível, escolha de horários, horário ajustável, horário variável, horário negociável, horário adaptável, horário customizável, horário pessoal, horário modulável, horário opcional, horário autônomo, horário livre, horário maleável, horário mutável, horário preferencial, horário customizado, horário ajustável, horários flexíveis, trabalho flexível, horas flexíveis, horário de trabalho flexível, flexibilidade de horário, flexibilidade de agenda, flexibilidade de trabalho, flexibilidade de horas, horário de entrada flexível, horário de saída flexível, horário de expediente flexível, jornada flexível, jornada de trabalho flexível, horários ajustáveis, horários variáveis, horários negociáveis, horários adaptáveis, horários customizáveis, horários pessoais, horários moduláveis, horários opcionais, horários autônomos, horários livres, horários maleáveis, horários mutáveis, horários preferenciais, horários customizados, horários ajustáveis, jornada de trabalho variável, jornada de trabalho negociável, jornada de trabalho adaptável, jornada de trabalho customizável, jornada de trabalho autônoma, jornada de trabalho livre, jornada de trabalho maleável, jornada de trabalho mutável, jornada de trabalho preferencial, jornada de trabalho customizada, jornada ajustável, jornada variável, jornada negociável, jornada adaptável, jornada customizável, jornada autônoma, jornada livre, jornada maleável, jornada mutável, jornada preferencial, jornada customizada, escala flexível, escala variável, escala negociável, escala adaptável, escala customizável, escala pessoal, escala modulável, escala opcional, escala autônoma, escala livre, escala maleável, escala mutável, escala preferencial, escala customizada, turnos flexíveis, turnos variáveis, turnos negociáveis, turnos adaptáveis, turnos customizáveis, turnos pessoais, turnos moduláveis, turnos opcionais, turnos autônomos, turnos livres, turnos maleáveis, turnos mutáveis, turnos preferenciais, turnos customizados, horários de trabalho ajustáveis, horários de trabalho variáveis, horários de trabalho negociáveis, horários de trabalho adaptáveis, horários de trabalho customizáveis, horários de trabalho livres.</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Estacionamento,Estacionamento</t>
+  </si>
+  <si>
+    <t>DB2</t>
+  </si>
+  <si>
+    <t>Cursando Ensino Superior,Universitário</t>
+  </si>
+  <si>
+    <t>3º período</t>
+  </si>
+  <si>
+    <t>Gympass,Gympass,Wellness(gympass),convênio com Gympass,Totalpass(convênio de academias)</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de produto</t>
+  </si>
+  <si>
+    <t>Graduação a partir,Universitário</t>
+  </si>
+  <si>
+    <t>Engenharia de Computação</t>
+  </si>
+  <si>
+    <t>Alura,acesso a plataforma de cursos alura</t>
+  </si>
+  <si>
+    <t>Disponibilidade</t>
+  </si>
+  <si>
+    <t>curso superior,Universitário</t>
+  </si>
+  <si>
+    <t>Gastronomia</t>
+  </si>
+  <si>
+    <t>Participação sobre lucros, PLR,possibilidade de sociedade,Participação dos lucros e resultados,</t>
+  </si>
+  <si>
+    <t>Estruturas de dados</t>
+  </si>
+  <si>
+    <t>formação em,Formado</t>
+  </si>
+  <si>
+    <t>Odontologia</t>
+  </si>
+  <si>
+    <t>Remoto,participação de qualquer lugar do brasil,trabalho remoto,horário flexível,Trabalho remoto</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Ensino Superior em,Formado</t>
+  </si>
+  <si>
+    <t>7º período</t>
+  </si>
+  <si>
+    <t>Flash Flex,benefício flash flex</t>
+  </si>
+  <si>
+    <t>Monitoração e logging</t>
+  </si>
+  <si>
+    <t>Superior completo em,Formado</t>
+  </si>
+  <si>
+    <t>Biomedicina</t>
+  </si>
+  <si>
+    <t>Treinamentos internos, Progrmas de treinamento internos,ambiente de aprendizagem,</t>
+  </si>
+  <si>
+    <t>Cloud AWS</t>
+  </si>
+  <si>
+    <t>recém formado,Recém Formado</t>
+  </si>
+  <si>
+    <t>5º período</t>
+  </si>
+  <si>
+    <t>G4,acesso ao G4 Skills</t>
+  </si>
+  <si>
+    <t>Testes unitários e de integração</t>
+  </si>
+  <si>
+    <t>matrícula ativa,Universitário</t>
+  </si>
+  <si>
+    <t>Relações Públicas</t>
+  </si>
+  <si>
+    <t>Staage, acesso a Staage,acesso ao Staage</t>
+  </si>
+  <si>
+    <t>Ferramentas de Analytics</t>
+  </si>
+  <si>
+    <t>cursando graduação em,Universitário</t>
+  </si>
+  <si>
+    <t>6º período</t>
+  </si>
+  <si>
+    <t>Networking,networking,Networking</t>
+  </si>
+  <si>
+    <t>Frameworks</t>
+  </si>
+  <si>
+    <t>Estudante de,Universitário</t>
+  </si>
+  <si>
+    <t>Administração</t>
+  </si>
+  <si>
+    <t>Universidade Corporativa,Universidade Corporativa,universidade corporativa</t>
+  </si>
+  <si>
+    <t>Genexus</t>
+  </si>
+  <si>
+    <t>bom relacionamento interpessoal,Comunicação</t>
+  </si>
+  <si>
+    <t>Arquitetura e Urbanismo</t>
+  </si>
+  <si>
+    <t>Não mencionados, Não mencionados,Não especificados</t>
+  </si>
+  <si>
+    <t>Gestão de fundos de investimento</t>
+  </si>
+  <si>
+    <t>criativa,Criatividade</t>
+  </si>
+  <si>
+    <t>Engenharia Civil</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>curioso,Curiosidade</t>
+  </si>
+  <si>
+    <t>8º período</t>
+  </si>
+  <si>
+    <t>GTM</t>
+  </si>
+  <si>
+    <t>Formatura a partir,Universitário</t>
+  </si>
+  <si>
+    <t>Engenharia de Produção</t>
+  </si>
+  <si>
+    <t>Hibernate</t>
+  </si>
+  <si>
+    <t>Farmácia</t>
+  </si>
+  <si>
+    <t>Inglês</t>
+  </si>
+  <si>
+    <t>4º período</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Tecnologias da Informação</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>1º período</t>
+  </si>
+  <si>
+    <t>JPA</t>
+  </si>
+  <si>
+    <t>Ciências Biológicas</t>
+  </si>
+  <si>
+    <t>Kafka</t>
+  </si>
+  <si>
+    <t>Enfermagem</t>
+  </si>
+  <si>
+    <t>Kotlin</t>
+  </si>
+  <si>
+    <t>História</t>
+  </si>
+  <si>
+    <t>Liderança</t>
+  </si>
+  <si>
+    <t>2º período</t>
+  </si>
+  <si>
+    <t>Matemática financeira</t>
+  </si>
+  <si>
+    <t>Design de Interiores</t>
+  </si>
+  <si>
+    <t>Metodologias Ágeis</t>
+  </si>
+  <si>
+    <t>Formados</t>
+  </si>
+  <si>
+    <t>Métricas de marketing digital</t>
+  </si>
+  <si>
+    <t>Serviço Social</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>10º período</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>Análise e Desenvolvimento de Sistemas</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>Moda</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>Fisioterapia</t>
+  </si>
+  <si>
+    <t>NoSQL</t>
+  </si>
+  <si>
+    <t>Ciências da Computação</t>
+  </si>
+  <si>
+    <t>Orientação a Objetos</t>
+  </si>
+  <si>
+    <t>Jornalismo</t>
+  </si>
+  <si>
+    <t>Pacote Office</t>
+  </si>
+  <si>
+    <t>Pedagogia</t>
+  </si>
+  <si>
+    <t>Perfil analítico</t>
+  </si>
+  <si>
+    <t>10º semestre</t>
+  </si>
+  <si>
+    <t>Perfil focado</t>
+  </si>
+  <si>
+    <t>Nutrição</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>Design Gráfico</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>Engenharia Elétrica</t>
+  </si>
+  <si>
+    <t>PowerPoint</t>
+  </si>
+  <si>
+    <t>4º semestre</t>
+  </si>
+  <si>
+    <t>Proatividade</t>
+  </si>
+  <si>
+    <t>9º semestre</t>
   </si>
   <si>
     <t>Python</t>
   </si>
   <si>
-    <t>Excel</t>
-  </si>
-  <si>
-    <t>Proatividade</t>
-  </si>
-  <si>
-    <t>5º semestre</t>
-  </si>
-  <si>
     <t>6º semestre</t>
   </si>
   <si>
-    <t>7º semestre</t>
+    <t>Questionador</t>
   </si>
   <si>
     <t>8º semestre</t>
   </si>
   <si>
-    <t>9º semestre</t>
-  </si>
-  <si>
-    <t>10º semestre</t>
-  </si>
-  <si>
-    <t>Formados</t>
-  </si>
-  <si>
-    <t>Administração</t>
+    <t>Rails</t>
+  </si>
+  <si>
+    <t>Letras</t>
+  </si>
+  <si>
+    <t>React.js</t>
+  </si>
+  <si>
+    <t>Direito</t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>Publicidade e Propaganda</t>
+  </si>
+  <si>
+    <t>Root cause analysis</t>
+  </si>
+  <si>
+    <t>Ciências Sociais</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Ciências Contábeis</t>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+  </si>
+  <si>
+    <t>Sistemas de Informação</t>
+  </si>
+  <si>
+    <t>SpringBoot</t>
+  </si>
+  <si>
+    <t>Psicologia</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Educação Física</t>
+  </si>
+  <si>
+    <t>Tagueamento</t>
   </si>
   <si>
     <t>Economia</t>
   </si>
   <si>
+    <t>TypeScript</t>
+  </si>
+  <si>
+    <t>Turismo</t>
+  </si>
+  <si>
+    <t>VB</t>
+  </si>
+  <si>
+    <t>Engenharia de Software</t>
+  </si>
+  <si>
+    <t>VBA</t>
+  </si>
+  <si>
+    <t>Agronomia</t>
+  </si>
+  <si>
+    <t>Visão de qualidade de software</t>
+  </si>
+  <si>
+    <t>Comércio Exterior</t>
+  </si>
+  <si>
+    <t>PySpark</t>
+  </si>
+  <si>
+    <t>Curso Superior</t>
+  </si>
+  <si>
+    <t>Power Querry</t>
+  </si>
+  <si>
     <t>Engenharia</t>
   </si>
   <si>
-    <t>1º semestre</t>
-  </si>
-  <si>
-    <t>2º semestre</t>
-  </si>
-  <si>
-    <t>3º semestre</t>
-  </si>
-  <si>
-    <t>4º semestre</t>
-  </si>
-  <si>
-    <t>Engenharia de Software</t>
-  </si>
-  <si>
-    <t>Sistemas de Informação</t>
-  </si>
-  <si>
-    <t>Análise e Desenvolvimento de Sistemas</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>Relações Públicas</t>
-  </si>
-  <si>
-    <t>Pacote Office</t>
-  </si>
-  <si>
-    <t>Comunicação</t>
-  </si>
-  <si>
-    <t>Contabilidade</t>
-  </si>
-  <si>
-    <t>Liderança</t>
-  </si>
-  <si>
-    <t>AWS</t>
-  </si>
-  <si>
-    <t>JavaScript</t>
-  </si>
-  <si>
-    <t>TypeScript</t>
-  </si>
-  <si>
-    <t>Node</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>Kotlin</t>
-  </si>
-  <si>
-    <t>Estruturas de dados</t>
-  </si>
-  <si>
-    <t>Rest</t>
-  </si>
-  <si>
-    <t>Kafka</t>
-  </si>
-  <si>
-    <t>Git</t>
-  </si>
-  <si>
-    <t>CI/CD</t>
-  </si>
-  <si>
-    <t>Root cause analysis</t>
-  </si>
-  <si>
-    <t>Perfil focado</t>
-  </si>
-  <si>
-    <t>Capacidade analítica</t>
-  </si>
-  <si>
-    <t>Perfil analítico</t>
-  </si>
-  <si>
-    <t>Matemática financeira</t>
-  </si>
-  <si>
-    <t>Controladoria de fundos</t>
-  </si>
-  <si>
-    <t>Gestão de fundos de investimento</t>
-  </si>
-  <si>
-    <t>Desenvolvimento de produto</t>
-  </si>
-  <si>
-    <t>Visão de qualidade de software</t>
-  </si>
-  <si>
-    <t>Banco de dados relacional e não relacional</t>
-  </si>
-  <si>
-    <t>Ferramentas de Analytics</t>
-  </si>
-  <si>
-    <t>Data Visualization</t>
-  </si>
-  <si>
-    <t>Métricas de marketing digital</t>
-  </si>
-  <si>
-    <t>Questionador</t>
+    <t>Autonomia</t>
+  </si>
+  <si>
+    <t>Engenharias</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Resiliência</t>
+  </si>
+  <si>
+    <t>Finanças</t>
+  </si>
+  <si>
+    <t>ERP SAP 4</t>
+  </si>
+  <si>
+    <t>Hotelaria</t>
+  </si>
+  <si>
+    <t>Hana</t>
+  </si>
+  <si>
+    <t>Jovens</t>
+  </si>
+  <si>
+    <t>Habilidades Analíticas</t>
+  </si>
+  <si>
+    <t>Logística</t>
+  </si>
+  <si>
+    <t>Google Workspace</t>
   </si>
   <si>
     <t>Matemática</t>
   </si>
   <si>
-    <t>Finanças</t>
-  </si>
-  <si>
-    <t>Inglês</t>
-  </si>
-  <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>GTM</t>
-  </si>
-  <si>
-    <t>Tagueamento</t>
-  </si>
-  <si>
-    <t>Hibernate</t>
-  </si>
-  <si>
-    <t>JPA</t>
-  </si>
-  <si>
-    <t>MySQL</t>
-  </si>
-  <si>
-    <t>PostgreSQL</t>
-  </si>
-  <si>
-    <t>NoSQL</t>
-  </si>
-  <si>
-    <t>MongoDB</t>
-  </si>
-  <si>
-    <t>Genexus</t>
-  </si>
-  <si>
-    <t>DB2</t>
-  </si>
-  <si>
-    <t>AS400</t>
-  </si>
-  <si>
-    <t>AIX</t>
-  </si>
-  <si>
-    <t>Frameworks</t>
-  </si>
-  <si>
-    <t>React.js</t>
-  </si>
-  <si>
-    <t>Logística</t>
-  </si>
-  <si>
-    <t>C#</t>
-  </si>
-  <si>
-    <t>Ruby</t>
-  </si>
-  <si>
-    <t>NET</t>
-  </si>
-  <si>
-    <t>SpringBoot</t>
-  </si>
-  <si>
-    <t>Rails</t>
-  </si>
-  <si>
-    <t>PHP</t>
-  </si>
-  <si>
-    <t>VBA</t>
-  </si>
-  <si>
-    <t>VB</t>
-  </si>
-  <si>
-    <t>PowerPoint</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>Engenharia Civil</t>
-  </si>
-  <si>
-    <t>Engenharia Mecânica</t>
-  </si>
-  <si>
-    <t>Engenharia Elétrica</t>
-  </si>
-  <si>
-    <t>Engenharia de Produção</t>
-  </si>
-  <si>
-    <t>Engenharia de Computação</t>
-  </si>
-  <si>
-    <t>Engenharia Química</t>
-  </si>
-  <si>
-    <t>Medicina</t>
-  </si>
-  <si>
-    <t>Direito</t>
-  </si>
-  <si>
-    <t>Psicologia</t>
-  </si>
-  <si>
-    <t>Enfermagem</t>
-  </si>
-  <si>
-    <t>Farmácia</t>
-  </si>
-  <si>
-    <t>Odontologia</t>
-  </si>
-  <si>
-    <t>Fisioterapia</t>
-  </si>
-  <si>
-    <t>Nutrição</t>
-  </si>
-  <si>
-    <t>Ciências Biológicas</t>
-  </si>
-  <si>
-    <t>Biomedicina</t>
-  </si>
-  <si>
-    <t>Educação Física</t>
-  </si>
-  <si>
-    <t>Ciências Contábeis</t>
-  </si>
-  <si>
-    <t>Arquitetura e Urbanismo</t>
-  </si>
-  <si>
-    <t>Jornalismo</t>
-  </si>
-  <si>
-    <t>Publicidade e Propaganda</t>
-  </si>
-  <si>
-    <t>Letras</t>
-  </si>
-  <si>
-    <t>Pedagogia</t>
-  </si>
-  <si>
-    <t>História</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Física</t>
-  </si>
-  <si>
-    <t>Química</t>
-  </si>
-  <si>
-    <t>Ciências Sociais</t>
-  </si>
-  <si>
-    <t>Serviço Social</t>
-  </si>
-  <si>
-    <t>Turismo</t>
-  </si>
-  <si>
-    <t>Design Gráfico</t>
-  </si>
-  <si>
-    <t>Design de Interiores</t>
-  </si>
-  <si>
-    <t>Moda</t>
-  </si>
-  <si>
-    <t>Gastronomia</t>
-  </si>
-  <si>
-    <t>Hotelaria</t>
-  </si>
-  <si>
-    <t>Ciências da Computação</t>
-  </si>
-  <si>
-    <t>Tecnologias da Informação</t>
-  </si>
-  <si>
-    <t>Comunicação Social</t>
+    <t>Sistema SAP</t>
+  </si>
+  <si>
+    <t>Recém-formados</t>
+  </si>
+  <si>
+    <t>Marketing Digital</t>
   </si>
   <si>
     <t>Relações Internacionais</t>
   </si>
   <si>
-    <t>Comércio Exterior</t>
-  </si>
-  <si>
-    <t>Agronomia</t>
-  </si>
-  <si>
-    <t>1º período</t>
-  </si>
-  <si>
-    <t>2º período</t>
-  </si>
-  <si>
-    <t>3º período</t>
-  </si>
-  <si>
-    <t>4º período</t>
-  </si>
-  <si>
-    <t>5º período</t>
-  </si>
-  <si>
-    <t>6º período</t>
-  </si>
-  <si>
-    <t>7º período</t>
-  </si>
-  <si>
-    <t>8º período</t>
-  </si>
-  <si>
-    <t>9º período</t>
-  </si>
-  <si>
-    <t>10º período</t>
+    <t>R</t>
   </si>
   <si>
     <t>Superior em andamento</t>
   </si>
   <si>
-    <t>Curso Superior</t>
-  </si>
-  <si>
-    <t>Engenharias</t>
-  </si>
-  <si>
-    <t>Jovens</t>
-  </si>
-  <si>
-    <t>Recém-formados</t>
-  </si>
-  <si>
-    <t>Metodologias Ágeis</t>
-  </si>
-  <si>
-    <t>Serverless Framework</t>
-  </si>
-  <si>
-    <t>Cloud AWS</t>
-  </si>
-  <si>
-    <t>Testes unitários e de integração</t>
-  </si>
-  <si>
-    <t>PySpark</t>
-  </si>
-  <si>
-    <t>Power Querry</t>
-  </si>
-  <si>
-    <t>Disponibilidade</t>
-  </si>
-  <si>
-    <t>Monitoração e logging</t>
-  </si>
-  <si>
-    <t>Lógica de Programação</t>
-  </si>
-  <si>
-    <t>Spring Boot</t>
-  </si>
-  <si>
-    <t>Orientação a Objetos</t>
-  </si>
-  <si>
-    <t>Substituicoes</t>
-  </si>
-  <si>
-    <t>empreendedorismo,Espírito empreendedor</t>
-  </si>
-  <si>
-    <t>ambicioso,Ambição</t>
-  </si>
-  <si>
-    <t>ambiciosos,Ambição</t>
-  </si>
-  <si>
-    <t>Cursando curso superior,Universitário</t>
-  </si>
-  <si>
-    <t>Cursando graduação,Universitário</t>
-  </si>
-  <si>
-    <t>Universitários,Universitário</t>
-  </si>
-  <si>
-    <t>Universitário,Universitário</t>
-  </si>
-  <si>
-    <t>Cursando,Universitário</t>
-  </si>
-  <si>
-    <t>Matriculado,Universitário</t>
-  </si>
-  <si>
-    <t>Cursar,Universitário</t>
-  </si>
-  <si>
-    <t>Estudantes, Universitário</t>
-  </si>
-  <si>
-    <t>Graduação em,Formado</t>
-  </si>
-  <si>
-    <t>Ensino superior em andamento,Universitário</t>
-  </si>
-  <si>
-    <t>Cursando Ensino Superior,Universitário</t>
-  </si>
-  <si>
-    <t>Graduação a partir,Universitário</t>
-  </si>
-  <si>
-    <t>curso superior,Universitário</t>
-  </si>
-  <si>
-    <t>formação em,Formado</t>
-  </si>
-  <si>
-    <t>Mentalidade empreendedora,Espírito empreendedor</t>
-  </si>
-  <si>
-    <t>Autonomia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Resiliência</t>
-  </si>
-  <si>
-    <t>ERP SAP 4</t>
-  </si>
-  <si>
-    <t>Hana</t>
-  </si>
-  <si>
-    <t>recém formado,Recém Formado</t>
-  </si>
-  <si>
-    <t>Habilidades Analíticas</t>
-  </si>
-  <si>
-    <t>Google Workspace</t>
-  </si>
-  <si>
-    <t>Sistema SAP</t>
-  </si>
-  <si>
-    <t>matrícula ativa,Universitário</t>
-  </si>
-  <si>
-    <t>Marketing Digital</t>
-  </si>
-  <si>
-    <t>bom relacionamento interpessoal,Comunicação</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>cursando graduação em,Universitário</t>
-  </si>
-  <si>
     <t>Google Planilhas</t>
   </si>
   <si>
-    <t>Estudante de,Universitário</t>
-  </si>
-  <si>
     <t>Linguagens de programação</t>
   </si>
   <si>
-    <t>curioso,Curiosidade</t>
-  </si>
-  <si>
-    <t>criativa,Criatividade</t>
-  </si>
-  <si>
-    <t>Formatura a partir,Universitário</t>
-  </si>
-  <si>
-    <t>5 semanas,5 semanas</t>
-  </si>
-  <si>
-    <t>Categorias Carga Horária</t>
-  </si>
-  <si>
-    <t>A combinar,mínimo de 2 meses</t>
-  </si>
-  <si>
-    <t>A combinar,20, 25 ou 30 horas semanais,20, 25 ou 30 horas semanais</t>
-  </si>
-  <si>
-    <t>4h/6h diárias,4h ou 6h diárias,4h ou 6h diárias,4h/6h diárias</t>
-  </si>
-  <si>
-    <t>Flexível,flexível</t>
-  </si>
-  <si>
-    <t>Não especificada,não mencionada,não mencionado,não informado,não informada,não especificada</t>
-  </si>
-  <si>
-    <t>A combinar,horário a combinar, preferencialmente das 09h às 16h, presencial</t>
-  </si>
-  <si>
-    <t>Flexível, horário flexível, agenda flexível, escolha de horários, horário ajustável, horário variável, horário negociável, horário adaptável, horário customizável, horário pessoal, horário modulável, horário opcional, horário autônomo, horário livre, horário maleável, horário mutável, horário preferencial, horário customizado, horário ajustável, horários flexíveis, trabalho flexível, horas flexíveis, horário de trabalho flexível, flexibilidade de horário, flexibilidade de agenda, flexibilidade de trabalho, flexibilidade de horas, horário de entrada flexível, horário de saída flexível, horário de expediente flexível, jornada flexível, jornada de trabalho flexível, horários ajustáveis, horários variáveis, horários negociáveis, horários adaptáveis, horários customizáveis, horários pessoais, horários moduláveis, horários opcionais, horários autônomos, horários livres, horários maleáveis, horários mutáveis, horários preferenciais, horários customizados, horários ajustáveis, jornada de trabalho variável, jornada de trabalho negociável, jornada de trabalho adaptável, jornada de trabalho customizável, jornada de trabalho autônoma, jornada de trabalho livre, jornada de trabalho maleável, jornada de trabalho mutável, jornada de trabalho preferencial, jornada de trabalho customizada, jornada ajustável, jornada variável, jornada negociável, jornada adaptável, jornada customizável, jornada autônoma, jornada livre, jornada maleável, jornada mutável, jornada preferencial, jornada customizada, escala flexível, escala variável, escala negociável, escala adaptável, escala customizável, escala pessoal, escala modulável, escala opcional, escala autônoma, escala livre, escala maleável, escala mutável, escala preferencial, escala customizada, turnos flexíveis, turnos variáveis, turnos negociáveis, turnos adaptáveis, turnos customizáveis, turnos pessoais, turnos moduláveis, turnos opcionais, turnos autônomos, turnos livres, turnos maleáveis, turnos mutáveis, turnos preferenciais, turnos customizados, horários de trabalho ajustáveis, horários de trabalho variáveis, horários de trabalho negociáveis, horários de trabalho adaptáveis, horários de trabalho customizáveis, horários de trabalho livres.</t>
-  </si>
-  <si>
-    <t>A combinar, Horário a definir, Horário flexível, A definir, A combinar, Flexível, Horário negociável, Horas variáveis, Horário ajustável, Preferencialmente, Sob consulta, De acordo com disponibilidade, A ser acordado, Horário indefinido, Horário variável, Sem horário fixo, A ser definido, Flexibilidade de horário, Horário por definir, Horário negociável, Dias e horários a combinar, A combinar, a definir, a negociar, a ser combinado, a ser definido, a ser negociado, horário a combinar, horário a ser combinado, a ajustar, a acordar, a determinar, a acertar, a estipular, a decidir, a tratar, a resolver, a combinar posteriormente, a alinhar, a ser acordado, a ser estipulado, a ser decidido, a ser ajustado, a ser resolvido, a ser acertado, horário a ser definido, horário a ser negociado, horário a ser ajustado, horário a ser acordado, horário a ser resolvido, horário a ser estipulado, horário a combinar posteriormente, horário a ajustar, horário a tratar, horário a decidir, horário a resolver, horário a alinhar, horário a acertar, horário a determinar, horário a estipular, a ajustar com o gestor, a definir com o gestor, a negociar com o gestor, a acertar com o gestor, a combinar com o gestor, a decidir com o gestor, a resolver com o gestor, horário a combinar com o gestor, horário a definir com o gestor, horário a negociar com o gestor, horário a acertar com o gestor, horário a ajustar com o gestor, horário a tratar com o gestor, horário a alinhar com o gestor, horário a estipular com o gestor, horário a decidir com o gestor, a negociar diretamente, a definir diretamente, a combinar diretamente, a ajustar diretamente, a resolver diretamente, horário a negociar diretamente, horário a definir diretamente, horário a ajustar diretamente, horário a resolver diretamente, horário a combinar diretamente, a tratar diretamente, a acertar diretamente, a alinhar diretamente, a estipular diretamente</t>
-  </si>
-  <si>
-    <t>20h semanais, 20 horas semanais, 20 horas por semana, carga horária de 20 horas semanais, 20h por semana, 20 horas de trabalho semanais, jornada de 20 horas semanais, 20h de trabalho semanal, trabalho de 20 horas por semana, 20h de carga horária semanal, 20 horas semanais de trabalho, 20h semanais de trabalho, jornada semanal de 20 horas, 20 horas de carga horária semanal, carga horária semanal de 20h, 20 horas de jornada semanal, 20h semanais de carga horária, 20 horas de trabalho semanal, carga horária de 20 horas semanais, 20h de jornada semanal, 20 horas semanais de jornada, jornada de trabalho de 20 horas semanais, 20 horas por semana de trabalho, trabalho com 20h semanais, carga horária de 20h por semana, jornada de 20h semanais, 20 horas de trabalho, 20 horas de carga semanal, 20h de jornada de trabalho semanal, 20 horas semanal de carga horária, carga horária semanal de 20 horas, 20 horas de carga horária semanal, trabalho com carga de 20h semanais, 20h de carga semanal, 20 horas semanais de carga, 20h semanais de jornada, jornada de 20 horas de trabalho semanal, carga horária de trabalho de 20 horas semanais, 20 horas semanais para trabalho, 20h semanais de jornada de trabalho, trabalho de 20 horas semanais, carga horária de trabalho de 20 horas por semana, jornada de 20 horas semanais, carga semanal de 20 horas, trabalho com carga horária de 20 horas semanais, 20 horas por semana de carga horária, jornada de trabalho semanal de 20 horas, 20 horas de jornada semanal, 20h de trabalho semanal, carga horária semanal de 20h, jornada semanal de 20 horas, 20 horas de trabalho semanalmente, trabalho de 20 horas semanais, carga horária semanal de 20 horas, 20h de carga semanal, 20 horas semanais de carga horária, trabalho com carga horária semanal de 20h, 20 horas semanais de trabalho, jornada de carga horária de 20 horas semanais, 20h semanais de trabalho, 20 horas de carga semanalmente, carga horária de 20h semanais, jornada de 20 horas de trabalho semanalmente, 20h semanais de carga horária</t>
-  </si>
-  <si>
-    <t>6h diárias,6 horas diárias de segunda-feira a sexta-feira,6h/dia (segunda-sexta),6h/dia,6 horas diárias em horário comercial, 6 horas diárias, jornada de 6 horas diárias, 6 horas por dia, 6h de trabalho diário, trabalho de 6 horas diárias, carga horária de 6 horas diárias, 6h por dia, 6 horas de trabalho diário, 6 horas diárias de trabalho, 6h de jornada diária, 6h diárias de trabalho, jornada diária de 6 horas, 6 horas de carga diária, carga diária de 6 horas, 6h de carga horária diária, 6 horas por jornada diária, 6 horas diárias de carga horária, trabalho com 6h diárias, 6 horas de jornada diária, carga horária de 6h diárias, 6 horas diárias de jornada, 6h diárias de carga horária, jornada de trabalho de 6 horas diárias, 6 horas de trabalho diárias, carga de 6 horas diárias, 6h diárias de jornada de trabalho, jornada diária de 6h, trabalho de 6 horas por dia, 6h por jornada diária, 6 horas diárias de trabalho, 6 horas de trabalho por dia, jornada de 6 horas de trabalho, carga horária diária de 6 horas, 6 horas diárias de jornada de trabalho, 6h de jornada de trabalho diária, 6h de trabalho por dia, jornada de 6 horas diárias de trabalho, 6 horas diárias de carga, carga de jornada de 6 horas diárias, 6 horas diárias de trabalho, 6h de carga horária diária, jornada de trabalho de 6 horas por dia, 6 horas de carga de trabalho diária, 6 horas de trabalho diárias, carga horária diária de 6h, 6 horas diárias para trabalho, jornada diária de trabalho de 6 horas, carga diária de trabalho de 6 horas, 6 horas diárias para jornada, 6 horas diárias de trabalho, trabalho com jornada de 6 horas diárias, 6h diárias de trabalho, carga horária de 6 horas por dia, 6 horas de trabalho por jornada diária, jornada diária de carga horária de 6 horas, 6h diárias de jornada, 6 horas diárias de carga de trabalho, jornada de 6 horas diárias para trabalho, 6 horas de carga diária de trabalho, trabalho com carga de 6h diárias</t>
-  </si>
-  <si>
-    <t>4h diárias, 4 horas diárias, jornada de 4 horas diárias, 4 horas por dia, 4h de trabalho diário, trabalho de 4 horas diárias, carga horária de 4 horas diárias, 4h por dia, 4 horas de trabalho diário, 4 horas diárias de trabalho, 4h de jornada diária, 4h diárias de trabalho, jornada diária de 4 horas, 4 horas de carga diária, carga diária de 4 horas, 4h de carga horária diária, 4 horas por jornada diária, 4 horas diárias de carga horária, trabalho com 4h diárias, 4 horas de jornada diária, carga horária de 4h diárias, 4 horas diárias de jornada, 4h diárias de carga horária, jornada de trabalho de 4 horas diárias, 4 horas de trabalho diárias, carga de 4 horas diárias, 4h diárias de jornada de trabalho, jornada diária de 4h, trabalho de 4 horas por dia, 4h por jornada diária, 4 horas diárias de trabalho, 4 horas de trabalho por dia, jornada de 4 horas de trabalho, carga horária diária de 4 horas, 4 horas diárias de jornada de trabalho, 4h de jornada de trabalho diária, 4h de trabalho por dia, jornada de 4 horas diárias de trabalho, 4 horas de carga de trabalho diária, 4 horas diárias para trabalho, carga diária de trabalho de 4 horas, 4 horas diárias para jornada, 4 horas diárias de trabalho, trabalho com jornada de 4 horas diárias, 4h diárias de trabalho, carga horária de 4 horas por dia, 4 horas de trabalho por jornada diária, jornada diária de carga horária de 4 horas, 4h diárias de jornada, 4 horas diárias de carga de trabalho, jornada de 4 horas diárias para trabalho, 4 horas de carga diária de trabalho, trabalho com carga de 4h diárias, carga de 4 horas diárias</t>
-  </si>
-  <si>
-    <t>30h semanais,estágio 30h,30h,30h semanais, 30 horas semanais, 30 horas por semana, carga horária de 30 horas semanais, 30h por semana, 30 horas de trabalho semanais, jornada de 30 horas semanais, 30h de trabalho semanal, trabalho de 30 horas por semana, 30h de carga horária semanal, 30 horas semanais de trabalho, 30h semanais de trabalho, jornada semanal de 30 horas, 30 horas de carga horária semanal, carga horária semanal de 30h, 30 horas de jornada semanal, 30h semanais de carga horária, 30 horas de trabalho semanal, carga horária de 30 horas semanais, 30h de jornada semanal, 30 horas semanais de jornada, jornada de trabalho de 30 horas semanais, 30 horas por semana de trabalho, trabalho com 30h semanais, carga horária de 30h por semana, jornada de 30h semanais, 30 horas de trabalho, 30 horas de carga semanal, 30h de jornada de trabalho semanal, 30 horas semanal de carga horária, carga horária semanal de 30 horas, 30 horas de carga horária semanal, trabalho com carga de 30h semanais, 30h de carga semanal, 30 horas semanais de carga, 30h semanais de jornada, jornada de 30 horas de trabalho semanal, carga horária de trabalho de 30 horas semanais, 30 horas semanais para trabalho, 30h semanais de jornada de trabalho, trabalho de 30 horas semanais, carga horária de trabalho de 30 horas por semana, jornada de 30 horas semanais, carga semanal de 30 horas, trabalho com carga horária de 30 horas semanais, 30 horas por semana de carga horária, jornada de trabalho semanal de 30 horas, 30 horas de jornada semanal, 30h de trabalho semanal, carga horária semanal de 30h, jornada semanal de 30 horas, 30 horas de trabalho semanalmente, trabalho de 30 horas semanais, carga horária semanal de 30 horas, 30h de carga semanal, 30 horas semanais de carga horária, trabalho com carga horária semanal de 30h, 30 horas semanais de trabalho, jornada de carga horária de 30 horas semanais, 30h semanais de trabalho, 30 horas de carga semanalmente, carga horária de 30h semanais, jornada de 30 horas de trabalho semanalmente, 30h semanais de carga horária</t>
-  </si>
-  <si>
-    <t>Full-time, full-time, Fulltime, tempo integral, jornada completa, carga horária completa, horário integral, trabalho em tempo integral, jornada de trabalho integral, carga horária total, trabalho de tempo integral, tempo total, jornada completa de trabalho, full-time, trabalho a tempo inteiro, carga horária plena, horário completo, horário integral, jornada completa de horas, horário de trabalho completo, full-time job, tempo pleno, jornada de tempo integral, trabalho a tempo integral, carga de trabalho integral, jornada de trabalho total, full-time position, tempo inteiro, jornada integral, horário de expediente completo, trabalho de carga integral, horário total, horário de trabalho integral, jornada de expediente integral, carga integral, tempo de trabalho integral, jornada diária completa, horário de trabalho de tempo integral, trabalho full-time, tempo integral de trabalho, jornada diária de tempo integral, trabalho com carga horária integral, jornada de trabalho em tempo integral, horário de trabalho de jornada completa, tempo integral de jornada, carga horária total de trabalho, jornada total de tempo, trabalho a tempo pleno, horário de trabalho a tempo integral, carga horária integral, jornada completa de tempo</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -676,9 +762,6 @@
     <t>TypeORM</t>
   </si>
   <si>
-    <t>Ensino Superior em,Formado</t>
-  </si>
-  <si>
     <t>Adobe Photoshop</t>
   </si>
   <si>
@@ -697,9 +780,6 @@
     <t>Relacionamento Interpessoal</t>
   </si>
   <si>
-    <t>Superior completo em,Formado</t>
-  </si>
-  <si>
     <t>Ferramentas de Dados</t>
   </si>
   <si>
@@ -722,13 +802,16 @@
   </si>
   <si>
     <t>Análise de Dados</t>
+  </si>
+  <si>
+    <t>Subs_Benefícios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,6 +846,13 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -784,7 +874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -799,16 +889,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,9 +914,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -867,9 +954,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -902,26 +989,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -954,26 +1024,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1149,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E167ACBD-3E81-4E70-A20B-06ACABE150DA}">
   <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1160,9 +1213,10 @@
     <col min="3" max="3" width="44.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="86.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1170,871 +1224,949 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>192</v>
+        <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>154</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>201</v>
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>191</v>
+        <v>64</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>88</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>92</v>
+      </c>
+      <c r="F19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>217</v>
+        <v>95</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>96</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>108</v>
+      </c>
+      <c r="F23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>112</v>
+      </c>
+      <c r="F24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>120</v>
+      </c>
+      <c r="F26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>13</v>
+        <v>177</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>6</v>
+        <v>179</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>102</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>115</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>83</v>
+        <v>203</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>23</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>125</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1"/>
       <c r="B72" s="2" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>58</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1"/>
       <c r="B73" s="2" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1"/>
       <c r="B75" s="2" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>75</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1"/>
       <c r="B76" s="2" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>57</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1"/>
       <c r="B77" s="2" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1"/>
       <c r="B78" s="2" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>124</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1"/>
       <c r="B79" s="2" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="C79" s="2"/>
       <c r="E79" s="1" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1"/>
       <c r="B80" s="2" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="C80" s="2"/>
-      <c r="E80" s="7"/>
+      <c r="E80" s="6"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1"/>
       <c r="B81" s="2" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="C81" s="2"/>
-      <c r="E81" s="7"/>
+      <c r="E81" s="6"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1"/>
       <c r="B82" s="2" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="C82" s="2"/>
       <c r="E82" s="1"/>
@@ -2042,7 +2174,7 @@
     <row r="83" spans="1:5">
       <c r="A83" s="1"/>
       <c r="B83" s="2" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="C83" s="2"/>
       <c r="E83" s="1"/>
@@ -2050,7 +2182,7 @@
     <row r="84" spans="1:5">
       <c r="A84" s="1"/>
       <c r="B84" s="2" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="C84" s="2"/>
       <c r="E84" s="1"/>
@@ -2058,7 +2190,7 @@
     <row r="85" spans="1:5">
       <c r="A85" s="1"/>
       <c r="B85" s="2" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="C85" s="2"/>
       <c r="E85" s="1"/>
@@ -2066,7 +2198,7 @@
     <row r="86" spans="1:5">
       <c r="A86" s="1"/>
       <c r="B86" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="4"/>
@@ -2075,7 +2207,7 @@
     <row r="87" spans="1:5">
       <c r="A87" s="4"/>
       <c r="B87" s="2" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="4"/>
@@ -2084,7 +2216,7 @@
     <row r="88" spans="1:5">
       <c r="A88" s="4"/>
       <c r="B88" s="2" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="4"/>
@@ -2093,7 +2225,7 @@
     <row r="89" spans="1:5">
       <c r="A89" s="4"/>
       <c r="B89" s="2" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="4"/>
@@ -2102,7 +2234,7 @@
     <row r="90" spans="1:5">
       <c r="A90" s="4"/>
       <c r="B90" s="2" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="4"/>
@@ -2111,7 +2243,7 @@
     <row r="91" spans="1:5">
       <c r="A91" s="4"/>
       <c r="B91" s="2" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="4"/>
@@ -2120,7 +2252,7 @@
     <row r="92" spans="1:5">
       <c r="A92" s="4"/>
       <c r="B92" s="2" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="4"/>
@@ -2129,7 +2261,7 @@
     <row r="93" spans="1:5">
       <c r="A93" s="4"/>
       <c r="B93" s="2" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="4"/>
@@ -2138,7 +2270,7 @@
     <row r="94" spans="1:5">
       <c r="A94" s="4"/>
       <c r="B94" s="2" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="4"/>
@@ -2147,7 +2279,7 @@
     <row r="95" spans="1:5">
       <c r="A95" s="4"/>
       <c r="B95" s="2" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="4"/>
@@ -2156,7 +2288,7 @@
     <row r="96" spans="1:5">
       <c r="A96" s="4"/>
       <c r="B96" s="2" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="4"/>
@@ -2165,7 +2297,7 @@
     <row r="97" spans="1:5">
       <c r="A97" s="4"/>
       <c r="B97" s="2" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="4"/>
@@ -2174,7 +2306,7 @@
     <row r="98" spans="1:5">
       <c r="A98" s="4"/>
       <c r="B98" s="2" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="4"/>
@@ -2183,7 +2315,7 @@
     <row r="99" spans="1:5">
       <c r="A99" s="4"/>
       <c r="B99" s="2" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="4"/>
@@ -2192,7 +2324,7 @@
     <row r="100" spans="1:5">
       <c r="A100" s="4"/>
       <c r="B100" s="2" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="4"/>
@@ -2201,7 +2333,7 @@
     <row r="101" spans="1:5">
       <c r="A101" s="4"/>
       <c r="B101" s="2" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="4"/>
@@ -2210,7 +2342,7 @@
     <row r="102" spans="1:5">
       <c r="A102" s="4"/>
       <c r="B102" s="2" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="4"/>
@@ -2219,7 +2351,7 @@
     <row r="103" spans="1:5">
       <c r="A103" s="4"/>
       <c r="B103" s="2" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="4"/>
@@ -2228,7 +2360,7 @@
     <row r="104" spans="1:5">
       <c r="A104" s="4"/>
       <c r="B104" s="2" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="4"/>
@@ -2237,7 +2369,7 @@
     <row r="105" spans="1:5">
       <c r="A105" s="4"/>
       <c r="B105" s="2" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -2245,14 +2377,14 @@
     </row>
     <row r="106" spans="1:5">
       <c r="B106" s="2" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:5">
       <c r="B107" s="2" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>

--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28007"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e534aba7bda15645/Documentos/ITAjr/CHATBOT_CEE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denil\OneDrive\Documentos\GitHub\CHATBOT_CEE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{EE644716-458F-4BC7-A1F8-94A54580B13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1EACB32-050E-4A4E-9680-503F672901FA}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:1_{EE644716-458F-4BC7-A1F8-94A54580B13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82B6CDCB-5E92-46E2-875F-5D87F49E0A57}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$178</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="293">
   <si>
     <t>Localidade</t>
   </si>
@@ -45,6 +56,15 @@
     <t>Destinatários</t>
   </si>
   <si>
+    <t>Subs_Benefícios</t>
+  </si>
+  <si>
+    <t>Subs_Areas</t>
+  </si>
+  <si>
+    <t>Setores</t>
+  </si>
+  <si>
     <t>Híbrido</t>
   </si>
   <si>
@@ -63,6 +83,12 @@
     <t>Vale Alimentação ou Refeição,Vale Alimentação,Vale alimentação,vale alimentação,Vale-alimentação,vale-alimentação/refeição,VR ou VA,auxílo-alimentação,VR/VA,VR e/ou VA,vale refeição/alimentação,Vale Refeição,vale-refeição,Vale-refeição,Vale-refeição ou alimentação,Auxílio-Refeição,Auxílio-alimentação</t>
   </si>
   <si>
+    <t>Desenvolvimento de software,Desenvolvimento de software,Desenvolvimento de Software,Engenharia de Software,Tecnologia da Informação,Arquitetura de Software,Desenvolvimento Backend</t>
+  </si>
+  <si>
+    <t>Tecnologia,Desenvolvimento de Sofware,Desenvolvimento de Plataforma de Crédito,Ciência de Dados,Tecnologia,Automação,UI/UX Design,Desenvolvimento de software</t>
+  </si>
+  <si>
     <t>Presencial</t>
   </si>
   <si>
@@ -81,6 +107,12 @@
     <t>Vale Transporte,vale transporte,Vale-Transporte,Vale Transporte,vale-transporte</t>
   </si>
   <si>
+    <t>Desenvolvimento de Plataforma de Crédito,Desenvolvimento de Plataforma de Crédito</t>
+  </si>
+  <si>
+    <t>Mercado Financeiro,Desenvolvimento de Plataforma de Crédito,Finanças,Economia</t>
+  </si>
+  <si>
     <t>Remoto</t>
   </si>
   <si>
@@ -99,6 +131,12 @@
     <t>Auxílio Pet,Auxílio Pet</t>
   </si>
   <si>
+    <t>Finanças,Produtos Digitais Financeiros,Financeiro,DCM,Administração Financeira,Mercado Financeiro,Estratégia Corporativa e Financeira,Corporate Banking,Tesouraria</t>
+  </si>
+  <si>
+    <t>Consultoria,Consultoria</t>
+  </si>
+  <si>
     <t>AWS</t>
   </si>
   <si>
@@ -114,6 +152,12 @@
     <t>Plano de Saúde ou Odontológico,Plano de Saúde,Plano Odontológico,clube de sáude, plano de saúde e odontológico,Assistência Médica</t>
   </si>
   <si>
+    <t>Ciência de dados,Data &amp; Analytics,Engenharia de Dados,Business Analytics</t>
+  </si>
+  <si>
+    <t>Indústria,Atacado,Produtos,Engenharia,Quimíca,Educação</t>
+  </si>
+  <si>
     <t>Banco de dados relacional e não relacional</t>
   </si>
   <si>
@@ -129,6 +173,12 @@
     <t>Seguro de Vida,Seguro de Vida,seguro de vida</t>
   </si>
   <si>
+    <t>Tecnologia,incluindo Tecnologia,Tecnologia</t>
+  </si>
+  <si>
+    <t>Comércio,Vendas,Supply chain,Portfólio,Administração</t>
+  </si>
+  <si>
     <t>C#</t>
   </si>
   <si>
@@ -144,6 +194,12 @@
     <t>Previdência,Previdência</t>
   </si>
   <si>
+    <t>Atacado,Atacado,Jurídico e Atacado</t>
+  </si>
+  <si>
+    <t>Comunicação e gestão de pessoas,Design Gráfico,Recursos Humanos,Inovação,Suporte,Relações Internacionais,Marketing,Comercial,Publicidade</t>
+  </si>
+  <si>
     <t>Capacidade analítica</t>
   </si>
   <si>
@@ -159,6 +215,9 @@
     <t>Auxílio Bábá,Auxílio Bábá</t>
   </si>
   <si>
+    <t>Relações Internacionais,Relações Internacionais,Comércio Exterior</t>
+  </si>
+  <si>
     <t>CI/CD</t>
   </si>
   <si>
@@ -174,6 +233,9 @@
     <t>Auxílio Creche,Auxílio Creche,auxílio creche</t>
   </si>
   <si>
+    <t>Marketing,Marketing,Marketing Digital,divulgação</t>
+  </si>
+  <si>
     <t>Cloud</t>
   </si>
   <si>
@@ -189,6 +251,9 @@
     <t>Desconto em produtos,Desconto em produtos,Parcerias e descontos,desconto em produtos,desconto em produtos,20% de desconto nos produtos Liv Up</t>
   </si>
   <si>
+    <t>Consultoria,Consultoria,Consultoria Estratégica,planejamento estratégico,Consultoria Tributária</t>
+  </si>
+  <si>
     <t>Comunicação</t>
   </si>
   <si>
@@ -204,6 +269,9 @@
     <t>Folga no aniversário,day off de aniversário,Dia de folga no aniversário, Dayoff de aniversário, Day Off aniversário,dayoff, day off</t>
   </si>
   <si>
+    <t>Automação,Automação,Automation,RPA(Robotica Process Automation)</t>
+  </si>
+  <si>
     <t>Serverless Framework</t>
   </si>
   <si>
@@ -219,6 +287,9 @@
     <t>Auxílio Home Office, Auxílio Home Office,Auxílio home office,auxílio home office</t>
   </si>
   <si>
+    <t>Suporte,Suporte</t>
+  </si>
+  <si>
     <t>Contabilidade</t>
   </si>
   <si>
@@ -234,6 +305,9 @@
     <t>Totalpass,Totalpass</t>
   </si>
   <si>
+    <t>Vendas,Vendas,Comunicação,Inside Sales,SDR Pré-vendas B2B,Vendas Internas</t>
+  </si>
+  <si>
     <t>Controladoria de fundos</t>
   </si>
   <si>
@@ -249,6 +323,9 @@
     <t>Vittude,Vittude</t>
   </si>
   <si>
+    <t>UI/UX Design,UI/UX Design,Customer Experience</t>
+  </si>
+  <si>
     <t>Data Visualization</t>
   </si>
   <si>
@@ -264,6 +341,9 @@
     <t>Estacionamento,Estacionamento</t>
   </si>
   <si>
+    <t>Educação,Educação</t>
+  </si>
+  <si>
     <t>DB2</t>
   </si>
   <si>
@@ -276,6 +356,9 @@
     <t>Gympass,Gympass,Wellness(gympass),convênio com Gympass,Totalpass(convênio de academias)</t>
   </si>
   <si>
+    <t>Supply chain,supply chain,Controle de Qualidade,Qualidade</t>
+  </si>
+  <si>
     <t>Desenvolvimento de produto</t>
   </si>
   <si>
@@ -288,6 +371,9 @@
     <t>Alura,acesso a plataforma de cursos alura</t>
   </si>
   <si>
+    <t>Administração,Administração,Administração Financeira</t>
+  </si>
+  <si>
     <t>Disponibilidade</t>
   </si>
   <si>
@@ -300,6 +386,9 @@
     <t>Participação sobre lucros, PLR,possibilidade de sociedade,Participação dos lucros e resultados,</t>
   </si>
   <si>
+    <t>Produtos,desenvolvimento de novos produtos</t>
+  </si>
+  <si>
     <t>Estruturas de dados</t>
   </si>
   <si>
@@ -312,6 +401,9 @@
     <t>Remoto,participação de qualquer lugar do brasil,trabalho remoto,horário flexível,Trabalho remoto</t>
   </si>
   <si>
+    <t>Comercial,Comercial,gestão de projetos,Business Intelligence</t>
+  </si>
+  <si>
     <t>Excel</t>
   </si>
   <si>
@@ -324,6 +416,9 @@
     <t>Flash Flex,benefício flash flex</t>
   </si>
   <si>
+    <t>Publicidade,Publicidade</t>
+  </si>
+  <si>
     <t>Monitoração e logging</t>
   </si>
   <si>
@@ -336,6 +431,9 @@
     <t>Treinamentos internos, Progrmas de treinamento internos,ambiente de aprendizagem,</t>
   </si>
   <si>
+    <t>Design Gráfico,Design Gráfico</t>
+  </si>
+  <si>
     <t>Cloud AWS</t>
   </si>
   <si>
@@ -348,6 +446,9 @@
     <t>G4,acesso ao G4 Skills</t>
   </si>
   <si>
+    <t>Engenharia,Engenharia,Engenharia de Software,Engenharias</t>
+  </si>
+  <si>
     <t>Testes unitários e de integração</t>
   </si>
   <si>
@@ -360,6 +461,9 @@
     <t>Staage, acesso a Staage,acesso ao Staage</t>
   </si>
   <si>
+    <t>Química,Química</t>
+  </si>
+  <si>
     <t>Ferramentas de Analytics</t>
   </si>
   <si>
@@ -372,6 +476,9 @@
     <t>Networking,networking,Networking</t>
   </si>
   <si>
+    <t>Economia,Economia,Macroeconomia</t>
+  </si>
+  <si>
     <t>Frameworks</t>
   </si>
   <si>
@@ -384,6 +491,9 @@
     <t>Universidade Corporativa,Universidade Corporativa,universidade corporativa</t>
   </si>
   <si>
+    <t>Inovação,Novos negócios,desenvolvimento de novos produtos</t>
+  </si>
+  <si>
     <t>Genexus</t>
   </si>
   <si>
@@ -396,6 +506,9 @@
     <t>Não mencionados, Não mencionados,Não especificados</t>
   </si>
   <si>
+    <t>Portfólio,Portfólio</t>
+  </si>
+  <si>
     <t>Gestão de fundos de investimento</t>
   </si>
   <si>
@@ -405,6 +518,9 @@
     <t>Engenharia Civil</t>
   </si>
   <si>
+    <t>Recursos Humanos,Recursos Humanos</t>
+  </si>
+  <si>
     <t>Git</t>
   </si>
   <si>
@@ -802,9 +918,6 @@
   </si>
   <si>
     <t>Análise de Dados</t>
-  </si>
-  <si>
-    <t>Subs_Benefícios</t>
   </si>
 </sst>
 </file>
@@ -874,7 +987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -889,12 +1002,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1200,23 +1317,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E167ACBD-3E81-4E70-A20B-06ACABE150DA}">
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" customWidth="1"/>
+    <col min="7" max="7" width="55.28515625" customWidth="1"/>
+    <col min="8" max="8" width="62.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1232,941 +1351,1043 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
+        <v>66</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>65</v>
+        <v>84</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>87</v>
+      </c>
+      <c r="G13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>93</v>
+      </c>
+      <c r="G14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>99</v>
+      </c>
+      <c r="G15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>104</v>
+      </c>
+      <c r="G16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>109</v>
+      </c>
+      <c r="G17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>114</v>
+      </c>
+      <c r="G18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>119</v>
+      </c>
+      <c r="G19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>124</v>
+      </c>
+      <c r="G20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="F21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>129</v>
+      </c>
+      <c r="G21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>134</v>
+      </c>
+      <c r="G22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>139</v>
+      </c>
+      <c r="G23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>144</v>
+      </c>
+      <c r="G24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="F25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>149</v>
+      </c>
+      <c r="G25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>154</v>
+      </c>
+      <c r="G26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>158</v>
+      </c>
+      <c r="G27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>178</v>
+        <v>212</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1"/>
       <c r="B72" s="2" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1"/>
       <c r="B73" s="2" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1"/>
       <c r="B75" s="2" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1"/>
       <c r="B76" s="2" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1"/>
       <c r="B77" s="2" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1"/>
       <c r="B78" s="2" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1"/>
       <c r="B79" s="2" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="C79" s="2"/>
       <c r="E79" s="1" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1"/>
       <c r="B80" s="2" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="C80" s="2"/>
-      <c r="E80" s="6"/>
+      <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1"/>
       <c r="B81" s="2" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="C81" s="2"/>
-      <c r="E81" s="6"/>
+      <c r="E81" s="7"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1"/>
       <c r="B82" s="2" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="C82" s="2"/>
       <c r="E82" s="1"/>
@@ -2174,7 +2395,7 @@
     <row r="83" spans="1:5">
       <c r="A83" s="1"/>
       <c r="B83" s="2" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="C83" s="2"/>
       <c r="E83" s="1"/>
@@ -2182,7 +2403,7 @@
     <row r="84" spans="1:5">
       <c r="A84" s="1"/>
       <c r="B84" s="2" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="C84" s="2"/>
       <c r="E84" s="1"/>
@@ -2190,7 +2411,7 @@
     <row r="85" spans="1:5">
       <c r="A85" s="1"/>
       <c r="B85" s="2" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="C85" s="2"/>
       <c r="E85" s="1"/>
@@ -2198,7 +2419,7 @@
     <row r="86" spans="1:5">
       <c r="A86" s="1"/>
       <c r="B86" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="4"/>
@@ -2207,7 +2428,7 @@
     <row r="87" spans="1:5">
       <c r="A87" s="4"/>
       <c r="B87" s="2" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="4"/>
@@ -2216,7 +2437,7 @@
     <row r="88" spans="1:5">
       <c r="A88" s="4"/>
       <c r="B88" s="2" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="4"/>
@@ -2225,7 +2446,7 @@
     <row r="89" spans="1:5">
       <c r="A89" s="4"/>
       <c r="B89" s="2" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="4"/>
@@ -2234,7 +2455,7 @@
     <row r="90" spans="1:5">
       <c r="A90" s="4"/>
       <c r="B90" s="2" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="4"/>
@@ -2243,7 +2464,7 @@
     <row r="91" spans="1:5">
       <c r="A91" s="4"/>
       <c r="B91" s="2" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="4"/>
@@ -2252,7 +2473,7 @@
     <row r="92" spans="1:5">
       <c r="A92" s="4"/>
       <c r="B92" s="2" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="4"/>
@@ -2261,7 +2482,7 @@
     <row r="93" spans="1:5">
       <c r="A93" s="4"/>
       <c r="B93" s="2" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="4"/>
@@ -2270,7 +2491,7 @@
     <row r="94" spans="1:5">
       <c r="A94" s="4"/>
       <c r="B94" s="2" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="4"/>
@@ -2279,7 +2500,7 @@
     <row r="95" spans="1:5">
       <c r="A95" s="4"/>
       <c r="B95" s="2" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="4"/>
@@ -2288,7 +2509,7 @@
     <row r="96" spans="1:5">
       <c r="A96" s="4"/>
       <c r="B96" s="2" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="4"/>
@@ -2297,7 +2518,7 @@
     <row r="97" spans="1:5">
       <c r="A97" s="4"/>
       <c r="B97" s="2" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="4"/>
@@ -2306,7 +2527,7 @@
     <row r="98" spans="1:5">
       <c r="A98" s="4"/>
       <c r="B98" s="2" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="4"/>
@@ -2315,7 +2536,7 @@
     <row r="99" spans="1:5">
       <c r="A99" s="4"/>
       <c r="B99" s="2" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="4"/>
@@ -2324,7 +2545,7 @@
     <row r="100" spans="1:5">
       <c r="A100" s="4"/>
       <c r="B100" s="2" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="4"/>
@@ -2333,7 +2554,7 @@
     <row r="101" spans="1:5">
       <c r="A101" s="4"/>
       <c r="B101" s="2" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="4"/>
@@ -2342,7 +2563,7 @@
     <row r="102" spans="1:5">
       <c r="A102" s="4"/>
       <c r="B102" s="2" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="4"/>
@@ -2351,7 +2572,7 @@
     <row r="103" spans="1:5">
       <c r="A103" s="4"/>
       <c r="B103" s="2" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="4"/>
@@ -2360,7 +2581,7 @@
     <row r="104" spans="1:5">
       <c r="A104" s="4"/>
       <c r="B104" s="2" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="4"/>
@@ -2369,7 +2590,7 @@
     <row r="105" spans="1:5">
       <c r="A105" s="4"/>
       <c r="B105" s="2" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -2377,14 +2598,14 @@
     </row>
     <row r="106" spans="1:5">
       <c r="B106" s="2" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:5">
       <c r="B107" s="2" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>

--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denil\OneDrive\Documentos\GitHub\CHATBOT_CEE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC8523A-1B80-4009-BEFD-FA791566AACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D584A2F3-7573-4CA5-BC80-11C2BF1FDA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,9 +390,6 @@
     <t>Arquitetura e Urbanismo</t>
   </si>
   <si>
-    <t>Não mencionados, Não mencionados,Não especificados</t>
-  </si>
-  <si>
     <t>Portfólio,Portfólio</t>
   </si>
   <si>
@@ -1075,6 +1072,9 @@
   </si>
   <si>
     <t>Setores</t>
+  </si>
+  <si>
+    <t>Não especificado,Não especificado,Não mencionados,Não especificados</t>
   </si>
 </sst>
 </file>
@@ -1507,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E167ACBD-3E81-4E70-A20B-06ACABE150DA}">
   <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1518,7 +1518,7 @@
     <col min="3" max="3" width="44.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="255.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="6" max="6" width="255.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="162.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="62.44140625" customWidth="1"/>
   </cols>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>3</v>
@@ -1546,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1557,13 +1557,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1589,7 +1589,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -1615,7 +1615,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
@@ -1633,13 +1633,13 @@
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -1657,13 +1657,13 @@
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D6" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
@@ -1681,13 +1681,13 @@
         <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D7" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -1705,13 +1705,13 @@
         <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D8" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F8" t="s">
         <v>44</v>
@@ -1726,13 +1726,13 @@
         <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D9" t="s">
         <v>47</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F9" t="s">
         <v>49</v>
@@ -1747,13 +1747,13 @@
         <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F10" t="s">
         <v>54</v>
@@ -1771,7 +1771,7 @@
         <v>57</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1789,7 +1789,7 @@
         <v>62</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1825,7 +1825,7 @@
         <v>71</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F14" t="s">
         <v>73</v>
@@ -1843,7 +1843,7 @@
         <v>76</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F15" t="s">
         <v>78</v>
@@ -1858,7 +1858,7 @@
         <v>80</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F16" t="s">
         <v>81</v>
@@ -1873,7 +1873,7 @@
         <v>83</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F17" t="s">
         <v>84</v>
@@ -1888,7 +1888,7 @@
         <v>86</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F18" t="s">
         <v>88</v>
@@ -1903,7 +1903,7 @@
         <v>90</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F19" t="s">
         <v>92</v>
@@ -1918,7 +1918,7 @@
         <v>94</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F20" t="s">
         <v>95</v>
@@ -1933,7 +1933,7 @@
         <v>97</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F21" t="s">
         <v>99</v>
@@ -1948,7 +1948,7 @@
         <v>101</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F22" t="s">
         <v>102</v>
@@ -1963,7 +1963,7 @@
         <v>104</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F23" t="s">
         <v>106</v>
@@ -1993,7 +1993,7 @@
         <v>111</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F25" t="s">
         <v>113</v>
@@ -2008,49 +2008,49 @@
         <v>115</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F26" t="s">
+        <v>345</v>
+      </c>
+      <c r="G26" t="s">
         <v>117</v>
-      </c>
-      <c r="G26" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>77</v>
@@ -2059,88 +2059,88 @@
     <row r="31" spans="1:7">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>98</v>
@@ -2149,106 +2149,106 @@
     <row r="41" spans="1:5">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>48</v>
@@ -2257,61 +2257,61 @@
     <row r="53" spans="1:5">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>105</v>
@@ -2320,82 +2320,82 @@
     <row r="60" spans="1:5">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C65" s="2"/>
       <c r="E65" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C66" s="2"/>
       <c r="E66" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C67" s="2"/>
       <c r="E67" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C68" s="2"/>
       <c r="E68" s="7" t="s">
@@ -2405,27 +2405,27 @@
     <row r="69" spans="1:7">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C69" s="2"/>
       <c r="E69" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C70" s="2"/>
       <c r="E70" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C71" s="2"/>
       <c r="E71" s="7" t="s">
@@ -2435,27 +2435,27 @@
     <row r="72" spans="1:7">
       <c r="A72" s="1"/>
       <c r="B72" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C72" s="2"/>
       <c r="E72" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1"/>
       <c r="B73" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C73" s="2"/>
       <c r="E73" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C74" s="2"/>
       <c r="E74" s="7" t="s">
@@ -2466,7 +2466,7 @@
     <row r="75" spans="1:7">
       <c r="A75" s="1"/>
       <c r="B75" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C75" s="2"/>
       <c r="E75" s="7" t="s">
@@ -2476,7 +2476,7 @@
     <row r="76" spans="1:7">
       <c r="A76" s="1"/>
       <c r="B76" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C76" s="2"/>
       <c r="E76" s="7" t="s">
@@ -2486,77 +2486,77 @@
     <row r="77" spans="1:7">
       <c r="A77" s="1"/>
       <c r="B77" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C77" s="2"/>
       <c r="E77" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1"/>
       <c r="B78" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C78" s="2"/>
       <c r="E78" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1"/>
       <c r="B79" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C79" s="2"/>
       <c r="E79" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1"/>
       <c r="B80" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C80" s="2"/>
       <c r="E80" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1"/>
       <c r="B81" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C81" s="2"/>
       <c r="E81" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1"/>
       <c r="B82" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C82" s="2"/>
       <c r="E82" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1"/>
       <c r="B83" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C83" s="2"/>
       <c r="E83" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1"/>
       <c r="B84" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C84" s="2"/>
       <c r="E84" s="7" t="s">
@@ -2566,11 +2566,11 @@
     <row r="85" spans="1:5">
       <c r="A85" s="1"/>
       <c r="B85" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C85" s="2"/>
       <c r="E85" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2587,172 +2587,172 @@
     <row r="87" spans="1:5">
       <c r="A87" s="4"/>
       <c r="B87" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="4"/>
       <c r="E87" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="4"/>
       <c r="B88" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="4"/>
       <c r="E88" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="4"/>
       <c r="B89" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="4"/>
       <c r="E89" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="4"/>
       <c r="B90" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="4"/>
       <c r="E90" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="4"/>
       <c r="B91" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="4"/>
       <c r="E91" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="4"/>
       <c r="B92" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="4"/>
       <c r="E92" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="4"/>
       <c r="B93" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="4"/>
       <c r="E93" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="4"/>
       <c r="B94" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="4"/>
       <c r="E94" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="4"/>
       <c r="B95" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="4"/>
       <c r="E95" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="4"/>
       <c r="B96" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="4"/>
       <c r="E96" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="4"/>
       <c r="B97" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="4"/>
       <c r="E97" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="4"/>
       <c r="B98" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="4"/>
       <c r="E98" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="4"/>
       <c r="B99" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="4"/>
       <c r="E99" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="4"/>
       <c r="B100" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="4"/>
       <c r="E100" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="4"/>
       <c r="B101" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="4"/>
       <c r="E101" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="4"/>
       <c r="B102" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="4"/>
@@ -2763,7 +2763,7 @@
     <row r="103" spans="1:5">
       <c r="A103" s="4"/>
       <c r="B103" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="4"/>
@@ -2774,7 +2774,7 @@
     <row r="104" spans="1:5">
       <c r="A104" s="4"/>
       <c r="B104" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="4"/>
@@ -2785,32 +2785,32 @@
     <row r="105" spans="1:5">
       <c r="A105" s="4"/>
       <c r="B105" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="B106" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="B107" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2818,7 +2818,7 @@
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2826,7 +2826,7 @@
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2834,7 +2834,7 @@
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2842,7 +2842,7 @@
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2850,7 +2850,7 @@
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="2:5">
@@ -2858,7 +2858,7 @@
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="2:5">
@@ -2866,7 +2866,7 @@
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="115" spans="2:5">
@@ -2874,7 +2874,7 @@
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="116" spans="2:5">
@@ -2882,7 +2882,7 @@
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="2:5">
@@ -2890,7 +2890,7 @@
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="118" spans="2:5">
@@ -2898,7 +2898,7 @@
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="119" spans="2:5">
@@ -2906,7 +2906,7 @@
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="2:5">
@@ -2914,7 +2914,7 @@
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121" spans="2:5">
@@ -2922,28 +2922,28 @@
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="122" spans="2:5">
       <c r="B122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="123" spans="2:5">
       <c r="B123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="124" spans="2:5">
       <c r="B124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="2:5">
@@ -2957,25 +2957,25 @@
       <c r="B126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="127" spans="2:5">
       <c r="D127" s="2"/>
       <c r="E127" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="2:5">
       <c r="D128" s="2"/>
       <c r="E128" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="129" spans="4:5">
       <c r="D129" s="2"/>
       <c r="E129" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130" spans="4:5">
@@ -2987,13 +2987,13 @@
     <row r="131" spans="4:5">
       <c r="D131" s="2"/>
       <c r="E131" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132" spans="4:5">
       <c r="D132" s="2"/>
       <c r="E132" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="4:5">
@@ -3005,43 +3005,43 @@
     <row r="134" spans="4:5">
       <c r="D134" s="2"/>
       <c r="E134" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="135" spans="4:5">
       <c r="D135" s="2"/>
       <c r="E135" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="136" spans="4:5">
       <c r="D136" s="2"/>
       <c r="E136" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="137" spans="4:5">
       <c r="D137" s="2"/>
       <c r="E137" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138" spans="4:5">
       <c r="D138" s="2"/>
       <c r="E138" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="139" spans="4:5">
       <c r="D139" s="2"/>
       <c r="E139" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="140" spans="4:5">
       <c r="D140" s="2"/>
       <c r="E140" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="141" spans="4:5">
@@ -3053,184 +3053,184 @@
     <row r="142" spans="4:5">
       <c r="D142" s="2"/>
       <c r="E142" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="143" spans="4:5">
       <c r="D143" s="2"/>
       <c r="E143" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="144" spans="4:5">
       <c r="D144" s="2"/>
       <c r="E144" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="145" spans="4:5">
       <c r="D145" s="2"/>
       <c r="E145" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="146" spans="4:5">
       <c r="D146" s="2"/>
       <c r="E146" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="147" spans="4:5">
       <c r="D147" s="2"/>
       <c r="E147" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="148" spans="4:5">
       <c r="D148" s="2"/>
       <c r="E148" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="149" spans="4:5">
       <c r="D149" s="2"/>
       <c r="E149" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="150" spans="4:5">
       <c r="D150" s="2"/>
       <c r="E150" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="151" spans="4:5">
       <c r="D151" s="2"/>
       <c r="E151" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="152" spans="4:5">
       <c r="D152" s="2"/>
       <c r="E152" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="153" spans="4:5">
       <c r="D153" s="2"/>
       <c r="E153" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="154" spans="4:5">
       <c r="D154" s="2"/>
       <c r="E154" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="155" spans="4:5">
       <c r="D155" s="2"/>
       <c r="E155" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="156" spans="4:5">
       <c r="D156" s="2"/>
       <c r="E156" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="157" spans="4:5">
       <c r="D157" s="2"/>
       <c r="E157" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="158" spans="4:5">
       <c r="D158" s="2"/>
       <c r="E158" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="159" spans="4:5">
       <c r="D159" s="2"/>
       <c r="E159" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="160" spans="4:5">
       <c r="D160" s="2"/>
       <c r="E160" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="161" spans="4:5">
       <c r="D161" s="2"/>
       <c r="E161" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="162" spans="4:5">
       <c r="D162" s="2"/>
       <c r="E162" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="163" spans="4:5">
       <c r="D163" s="2"/>
       <c r="E163" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="164" spans="4:5">
       <c r="D164" s="2"/>
       <c r="E164" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="165" spans="4:5">
       <c r="E165" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="166" spans="4:5">
       <c r="E166" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="167" spans="4:5">
       <c r="E167" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="168" spans="4:5">
       <c r="E168" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="169" spans="4:5">
       <c r="E169" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="170" spans="4:5">
       <c r="E170" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="171" spans="4:5">
       <c r="E171" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="172" spans="4:5">
       <c r="E172" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="173" spans="4:5">
       <c r="E173" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denil\OneDrive\Documentos\GitHub\CHATBOT_CEE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0793BE3-4D90-4997-B50F-B81BC97C2396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1CA72B-572B-4560-90F1-F71526F782BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="343">
   <si>
     <t>Localidade</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Vale Alimentação ou Refeição,Vale Alimentação,Vale alimentação,vale alimentação,Vale-alimentação,vale-alimentação/refeição,VR ou VA,auxílo-alimentação,VR/VA,VR e/ou VA,vale refeição/alimentação,Vale Refeição,vale-refeição,Vale-refeição,Vale-refeição ou alimentação,Auxílio-Refeição,Auxílio-alimentação</t>
   </si>
   <si>
-    <t>Desenvolvimento de software,Desenvolvimento de Software,Engenharia de Software,Tecnologia da Informação,Arquitetura de Software,Desenvolvimento Backend,Programação,Desenvolvimento de Sistemas,Codificação,Desenvolvimento Web,Desenvolvimento Frontend,DevOps,Metodologias Ágeis,Scrum,Kanban,Gestão de Projetos de Software,Integração Contínua,Entrega Contínua,Testes Automatizados,QA (Quality Assurance),TDD (Test Driven Development),BDD (Behavior Driven Development),Refatoração,Clean Code,Padrões de Projeto,Design Patterns,Microserviços,APIs RESTful,APIs GraphQL,Desenvolvimento Mobile,Desenvolvimento Android,Desenvolvimento iOS,Desenvolvimento Cross-Platform,React Native,Flutter,Frameworks de Desenvolvimento,Angular,React.js,Vue.js,Node.js,Spring Boot,Django,Ruby on Rails,Laravel,ASP.NET Core,Integração de Sistemas,Desenvolvimento Full Stack,Cloud Computing,AWS,Microsoft Azure,Google Cloud Platform,Serviços Web,Servidor de Aplicação,Servidor de Banco de Dados,MySQL,PostgreSQL,MongoDB,SQL Server,Banco de Dados Relacional,Banco de Dados Não Relacional,Big Data,Análise de Dados,Ciência de Dados,Machine Learning,Inteligência Artificial,IoT (Internet das Coisas),Segurança da Informação,Cibersegurança,Cryptografia,Blockchain,Desenvolvimento de Blockchain,Contratos Inteligentes,Automação de Processos,RPA (Robotic Process Automation),Chatbots,Assistentes Virtuais,Desenvolvimento de Jogos,Desenvolvimento de Realidade Aumentada,Desenvolvimento de Realidade Virtual,Desenvolvimento de Realidade Mista,WebGL,OpenGL,Unity,Unreal Engine,Controle de Versão,Git,GitHub,GitLab,Bitbucket,CI/CD,Jenkins,Kubernetes,Docker,Virtualização,Containers,Servidor Web,Apache,Nginx,Serviços de Mensageria,RabbitMQ,Apache Kafka,ElasticSearch,Redes Neurais,Programação Funcional,Programação Orientada a Objetos,Automação de Testes,Data Science,Deep Learning,Modelagem de Dados,Mineração de Dados,Visualização de Dados,Processamento de Dados,Estatística,Programação em Python,Programação em R,Aprendizado Supervisionado,Aprendizado Não Supervisionado,Aprendizado por Reforço,Algoritmos de Machine Learning,Análise Preditiva,Análise Descritiva,Análise Diagnóstica,Análise Prescritiva,Processamento de Linguagem Natural,NLP,Redes Neurais Convolucionais,Redes Neurais Recorrentes,Árvores de Decisão,Random Forest,Gradient Boosting,XGBoost,Support Vector Machines,Clustering,K-Means,DBSCAN,Avaliação de Modelos,Métricas de Performance de Modelos,Engenharia de Recursos,Feature Engineering,Feature Selection,Tratamento de Dados Faltantes,Normalização de Dados,Escalonamento de Dados,Análise Exploratória de Dados,EDA,Validação Cruzada,Overfitting,Underfitting,Regularização,Lasso,Ridge,Regressão Linear,Regressão Logística,Classificação,Previsão,Segmentação de Clientes,Análise de Séries Temporais,Redes Bayesianas,Modelos Probabilísticos,Modelos de Regressão,Modelos de Classificação,Detecção de Anomalias,Sistemas de Recomendação,Análise de Sentimentos,Análise de Texto,Processamento de Imagens,Data Wrangling,ETL (Extract, Transform, Load),SQL,NoSQL,Bancos de Dados Relacionais,Bancos de Dados Não Relacionais,Hadoop,Spark,PySpark,Kafka,TensorFlow,Keras,PyTorch,Scikit-Learn,Pandas,Numpy,Matplotlib,Seaborn,Plotly,D3.js,Dash,Data Lakes,Data Warehousing,Data Governance,Data Quality,Data Cleaning,Data Pipeline,Análise de Dados em Tempo Real,Visualização Interativa de Dados,Análise de Redes Sociais</t>
-  </si>
-  <si>
     <t>Tecnologia,Desenvolvimento de Sofware,Desenvolvimento de Plataforma de Crédito,Ciência de Dados,Tecnologia,Automação,UI/UX Design,Desenvolvimento de software</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>Vale Transporte,vale transporte,Vale-Transporte,Vale Transporte,vale-transporte</t>
   </si>
   <si>
-    <t>Desenvolvimento de Plataforma de Crédito,Desenvolvimento de Plataforma de Crédito</t>
-  </si>
-  <si>
     <t>Mercado Financeiro,Desenvolvimento de Plataforma de Crédito,Finanças,Economia</t>
   </si>
   <si>
@@ -112,9 +106,6 @@
     <t>Auxílio Pet,Auxílio Pet</t>
   </si>
   <si>
-    <t>Finanças,Produtos Digitais Financeiros,Financeiro,DCM,Administração Financeira,Mercado Financeiro,Estratégia Corporativa e Financeira,Corporate Banking,Tesouraria,Gestão Financeira,Planejamento Financeiro,Análise Financeira,Contabilidade,Investimentos,Gestão de Investimentos,Finanças Corporativas,Finanças Pessoais,Orçamento,Controle de Despesas,Fluxo de Caixa,Análise de Risco,Gestão de Risco,Investimentos em Ações,Investimentos em Fundos,Investimentos Imobiliários,Análise de Crédito,Empréstimos,Financiamentos,Planejamento Tributário,Compliance Financeiro,Relatórios Financeiros,Auditoria Financeira,Gestão de Tesouraria,Planejamento Orçamentário,Análise de Investimentos,Gestão de Portfólio,Economia,Análise Econômica,Macroeconomia,Microeconomia,Economia Internacional,Política Monetária,Política Fiscal,Taxas de Juros,Inflação,Taxas de Câmbio,Previsão Financeira,Modelagem Financeira,Valuation,Capital de Giro,Gestão de Ativos,Gestão de Passivos,Gestão de Custos,Controle Orçamentário,Contabilidade Gerencial,Finanças Empresariais,Gestão de Dívidas,Consultoria Financeira,Planejamento de Aposentadoria,Planejamento Sucessório,Seguros,Gestão de Seguros,Análise de Investimento,Gestão de Riqueza,Desenvolvimento de Estratégias Financeiras,Reestruturação Financeira,Gestão de Caixa,Gestão de Investimentos Alternativos,Finanças de Projetos,Gestão de Receitas,Auditoria de Compliance,Relatórios Contábeis,Gestão de Fundos de Investimento,Fundos de Pensão,Gestão de Risco de Crédito,Gestão de Risco Operacional,Gestão de Risco de Mercado</t>
-  </si>
-  <si>
     <t>Consultoria,Consultoria</t>
   </si>
   <si>
@@ -133,7 +124,7 @@
     <t>Plano de Saúde ou Odontológico,Plano de Saúde,Plano Odontológico,clube de sáude, plano de saúde e odontológico,Assistência Médica</t>
   </si>
   <si>
-    <t>Ciência de Dados,Ciência de Dados,Data &amp; Analytics,Engenharia de Dados,Business Analytics</t>
+    <t>Ciência de Dados,Ciência de Dados,Data &amp; Analytics,Engenharia de Dados,Business Analytics,Data Science,Deep Learning,Modelagem de Dados,Mineração de Dados,Visualização de Dados,Processamento de Dados,Estatística,Programação em Python,Programação em R,Aprendizado Supervisionado,Aprendizado Não Supervisionado,Aprendizado por Reforço,Algoritmos de Machine Learning,Análise Preditiva,Análise Descritiva,Análise Diagnóstica,Análise Prescritiva,Processamento de Linguagem Natural,NLP,Redes Neurais Convolucionais,Redes Neurais Recorrentes,Árvores de Decisão,Random Forest,Gradient Boosting,XGBoost,Support Vector Machines,Clustering,K-Means,DBSCAN,Avaliação de Modelos,Métricas de Performance de Modelos,Engenharia de Recursos,Feature Engineering,Feature Selection,Tratamento de Dados Faltantes,Normalização de Dados,Escalonamento de Dados,Análise Exploratória de Dados,EDA,Validação Cruzada,Overfitting,Underfitting,Regularização,Lasso,Ridge,Regressão Linear,Regressão Logística,Classificação,Previsão,Segmentação de Clientes,Análise de Séries Temporais,Redes Bayesianas,Modelos Probabilísticos,Modelos de Regressão,Modelos de Classificação,Detecção de Anomalias,Sistemas de Recomendação,Análise de Sentimentos,Análise de Texto,Processamento de Imagens,Data Wrangling,ETL (Extract, Transform, Load),SQL,NoSQL,Bancos de Dados Relacionais,Bancos de Dados Não Relacionais,Hadoop,Spark,PySpark,Kafka,TensorFlow,Keras,PyTorch,Scikit-Learn,Pandas,Numpy,Matplotlib,Seaborn,Plotly,D3.js,Dash,Data Lakes,Data Warehousing,Data Governance,Data Quality,Data Cleaning,Data Pipeline,Análise de Dados em Tempo Real,Visualização Interativa de Dados,Análise de Redes Sociais</t>
   </si>
   <si>
     <t>Indústria,Atacado,Produtos,Engenharia,Quimíca,Educação</t>
@@ -154,12 +145,6 @@
     <t>Seguro de Vida,Seguro de Vida,seguro de vida</t>
   </si>
   <si>
-    <t>Tecnologia,incluindo Tecnologia,Tecnologia</t>
-  </si>
-  <si>
-    <t>Comércio,Vendas,Supply chain,Portfólio,Administração</t>
-  </si>
-  <si>
     <t>C#</t>
   </si>
   <si>
@@ -175,6 +160,9 @@
     <t>Previdência,Previdência</t>
   </si>
   <si>
+    <t>Atacado,Jurídico e Atacado,Venda por Atacado,Distribuição,Distribuição Atacadista,Logística Atacadista,Comércio Atacadista,Fornecedores,Distribuidores,Preços por Atacado,Estoque Atacadista,Armazenagem,Gestão de Estoques,Gestão de Distribuição,Canal de Distribuição,Compras por Atacado,Importação por Atacado,Exportação por Atacado,Frete Atacadista,Transportadoras,Expedição,Embalagem,Supply Chain,Supply Chain Management,Gestão da Cadeia de Suprimentos,Logística Reversa,Centro de Distribuição,Automatização de Armazéns,Distribuição de Produtos,Atacadista de Alimentos,Atacadista de Bebidas,Atacadista de Roupas,Atacadista de Eletrônicos,Atacadista de Produtos de Beleza,Atacadista de Cosméticos,Atacadista de Medicamentos,Atacadista de Produtos Hospitalares,Atacadista de Limpeza,Atacadista de Materiais de Construção,Atacadista de Ferramentas,Atacadista de Brinquedos,Atacadista de Móveis,Atacadista de Papelaria,Atacadista de Produtos para Escritório,Atacadista de Produtos Automotivos,Atacadista de Acessórios,Distribuição de Alimentos,Distribuição de Bebidas,Distribuição de Roupas,Distribuição de Eletrônicos,Distribuição de Cosméticos,Distribuição de Medicamentos,Distribuição de Materiais de Construção,Distribuição de Móveis,Distribuição de Produtos de Limpeza,Gestão de Fornecedores,Compras Corporativas,Compra Coletiva,Compra em Lote,Compra de Volume,Economia de Escala,Preço Competitivo,Análise de Mercado Atacadista,Pesquisa de Mercado Atacadista,Fidelização de Clientes Atacadistas,Marketing Atacadista,Marketing de Vendas por Atacado,E-commerce Atacadista,Vendas B2B,Vendas Corporativas,Atacado Digital,Atacado Online,Plataformas de Atacado,Marketplace Atacadista,Negociações por Atacado,Planejamento de Compras,Orçamento Atacadista,Projeção de Vendas por Atacado,Descontos por Volume,Ofertas por Atacado,Incentivos de Compra por Atacado,Relacionamento com Fornecedores,Gestão de Parcerias Atacadistas,Gestão de Cadeias de Suprimentos Globais,Distribuição Internacional,Atacadista Multicanal,Omnichannel Atacadista,Eficiência Operacional no Atacado,Redução de Custos no Atacado,Logística de Distribuição,Automatização de Processos Atacadistas</t>
+  </si>
+  <si>
     <t>Comunicação e gestão de pessoas,Design Gráfico,Recursos Humanos,Inovação,Suporte,Relações Internacionais,Marketing,Comercial,Publicidade</t>
   </si>
   <si>
@@ -211,6 +199,9 @@
     <t>Auxílio Creche,Auxílio Creche,auxílio creche</t>
   </si>
   <si>
+    <t>Marketing,Marketing,Marketing Digital,Marketing de Conteúdo,Marketing de Mídias Sociais,SEO,SEM,Publicidade Online,Google Ads,Facebook Ads,Instagram Ads,Email Marketing,Automação de Marketing,Inbound Marketing,Outbound Marketing,Marketing de Influência,Marketing de Afiliados,Marketing de Relacionamento,CRM,Gestão de Clientes,Fidelização de Clientes,Branding,Gestão de Marcas,Identidade Visual,Posicionamento de Marca,Pesquisa de Mercado,Análise de Concorrência,Análise de Dados,Marketing de Performance,ROI,Conversão,Leads,Geração de Leads,Nutrição de Leads,Campanhas de Marketing,Gestão de Campanhas,Planejamento de Marketing,Estratégia de Marketing,Plano de Marketing,Marketing de Produto,Lançamento de Produtos,Segmentação de Mercado,Persona de Cliente,Customer Journey,Experiência do Cliente,Marketing de Experiência,Marketing Omnichannel,Omnichannel,Atendimento ao Cliente,Sucesso do Cliente,Customer Success,Marketing de Eventos,Feiras e Exposições,Marketing de Proximidade,Marketing Geolocalizado,Marketing Viral,Storytelling,Copywriting,Conteúdo Interativo,Content Marketing,Video Marketing,Marketing de Vídeo,Live Marketing,Marketing em Tempo Real,Real-Time Marketing,Mobile Marketing,Marketing Mobile,App Marketing,Marketing de Aplicativos,Marketing para Dispositivos Móveis,E-commerce Marketing,Marketing para E-commerce,Social Media Marketing,Marketing em Redes Sociais,Gestão de Redes Sociais,Influencer Marketing,Marketing de Influenciadores,Marketing B2B,Marketing B2C,Marketing Empresarial,Publicidade e Propaganda,Publicidade Digital,Anúncios Online,Google Analytics,Web Analytics,Análise de Tráfego,Comportamento do Consumidor,Pesquisa de Satisfação,Pesquisa de Clientes,Marketing de Retenção,Retenção de Clientes,Remarketing,Retargeting,Google Search Console,Webmaster Tools,Marketing Local,Geotargeting,Marketing para Pequenas Empresas,Marketing para Startups,Marketing Estratégico,Marketing Criativo,Design de Marketing,Public Relations,PR,Comunicação Corporativa,Marketing de Conteúdo Visual</t>
+  </si>
+  <si>
     <t>Cloud</t>
   </si>
   <si>
@@ -226,7 +217,7 @@
     <t>Desconto em produtos,Desconto em produtos,Parcerias e descontos,desconto em produtos,desconto em produtos,20% de desconto nos produtos Liv Up</t>
   </si>
   <si>
-    <t>Consultoria,Consultoria,Consultoria Estratégica,planejamento estratégico,Consultoria Tributária</t>
+    <t>Consultoria,Consultoria,Consultoria Estratégica,planejamento estratégico,Consultoria Tributária,Consultoria,Consultoria Empresarial,Consultoria de Negócios,Consultoria Estratégica,Consultoria em RH,Consultoria de Recursos Humanos,Consultoria de TI,Consultoria em Tecnologia da Informação,Consultoria em Marketing,Consultoria em Vendas,Consultoria Contábil,Consultoria Jurídica,Consultoria Tributária,Consultoria Fiscal,Consultoria de Gestão,Consultoria de Projetos,Consultoria de Processos,Consultoria de Inovação,Consultoria de Qualidade,Consultoria de Produtividade,Consultoria em Logística,Consultoria Ambiental,Consultoria em Sustentabilidade,Consultoria de Compliance,Consultoria em Governança Corporativa,Consultoria de Investimentos,Consultoria em M&amp;A,Consultoria em Fusões e Aquisições,Consultoria de Reestruturação,Consultoria Organizacional,Consultoria de Transformação Digital,Consultoria em E-commerce,Consultoria em Customer Experience,Consultoria de Atendimento ao Cliente,Consultoria em Data Science,Consultoria em Analytics,Consultoria de Gestão de Riscos,Consultoria de Gestão de Mudanças,Consultoria de Gestão de Projetos,Consultoria de Gestão de Pessoas,Consultoria de Carreira,Consultoria para Startups,Consultoria em Desenvolvimento de Software,Consultoria em Segurança da Informação,Consultoria em Cloud Computing,Consultoria em Transformação Ágil,Consultoria em Supply Chain,Consultoria em Cadeia de Suprimentos</t>
   </si>
   <si>
     <t>Comunicação</t>
@@ -256,9 +247,6 @@
     <t>Auxílio Home Office, Auxílio Home Office,Auxílio home office,auxílio home office</t>
   </si>
   <si>
-    <t>Suporte,Suporte</t>
-  </si>
-  <si>
     <t>Contabilidade</t>
   </si>
   <si>
@@ -271,7 +259,7 @@
     <t>Totalpass,Totalpass</t>
   </si>
   <si>
-    <t>Vendas,Vendas,Comunicação,Inside Sales,SDR Pré-vendas B2B,Vendas Internas</t>
+    <t>Vendas,Comunicação,Inside Sales,SDR Pré-vendas B2B,Vendas Internas,Técnicas de Vendas,Gestão de Vendas,Estratégia de Vendas,Funil de Vendas,CRM,Vendas B2B,Vendas B2C,Prospecção de Clientes,Fechamento de Vendas,Negociação,Planejamento de Vendas,Gestão de Pipeline,Conversão de Leads,Nutrição de Leads,Outside Sales,Vendas Consultivas,Vendas Diretas,Vendas Indiretas,Vendas Online,Vendas Digitais,Vendas Presenciais,Atendimento ao Cliente,Pós-Venda,Fidelização de Clientes,Customer Success,Propostas Comerciais,Previsão de Vendas,Análise de Vendas,Análise de Mercado,Market Share,Cross-Selling,Up-Selling,Vendas por Telefone,Vendas por E-mail,Vendas em Redes Sociais,Marketing de Vendas,Promoções,Incentivos de Vendas,Programa de Vendas,Gestão de Equipes de Vendas,Treinamento de Vendas,Comissionamento,Gestão de Metas,Alcance de Metas,Planejamento Comercial,Plano de Comissões,Gestão de Carteira de Clientes,Automação de Vendas</t>
   </si>
   <si>
     <t>Controladoria de fundos</t>
@@ -286,9 +274,6 @@
     <t>Vittude,Vittude</t>
   </si>
   <si>
-    <t>UI/UX Design,UI/UX Design,Customer Experience</t>
-  </si>
-  <si>
     <t>Data Visualization</t>
   </si>
   <si>
@@ -301,9 +286,6 @@
     <t>Estacionamento,Estacionamento</t>
   </si>
   <si>
-    <t>Educação,Educação</t>
-  </si>
-  <si>
     <t>DB2</t>
   </si>
   <si>
@@ -325,9 +307,6 @@
     <t>Alura,acesso a plataforma de cursos alura</t>
   </si>
   <si>
-    <t>Produtos,desenvolvimento de novos produtos</t>
-  </si>
-  <si>
     <t>Disponibilidade</t>
   </si>
   <si>
@@ -337,7 +316,7 @@
     <t>Participação sobre lucros, PLR,possibilidade de sociedade,Participação dos lucros e resultados,</t>
   </si>
   <si>
-    <t>Comercial,Comercial,gestão de projetos,Business Intelligence</t>
+    <t>Comercial,gestão de projetos,Business Intelligence,Estratégia Comercial,Gestão Comercial,Plano Comercial,Política Comercial,Desenvolvimento Comercial,Negociação Comercial,Área Comercial,Departamento Comercial,Diretoria Comercial,Gestão de Contas,Propostas Comerciais,Contratos Comerciais,Representação Comercial,Atendimento Comercial,Equipe Comercial,Força de Vendas,Metas Comerciais,Planejamento Comercial,Expansão Comercial,Gestão de Clientes,Prospecção Comercial,Gestão de Relacionamento,CRM,Fechamento de Contratos,Parcerias Comerciais,Negócios Comerciais,Marketing Comercial,Política de Preços,Ofertas Comerciais,Campanhas Comerciais,Desempenho Comercial,Análise Comercial,Relatório Comercial,Forecast Comercial,Projeções Comerciais,Canal de Vendas,Distribuição Comercial,Logística Comercial,Merchandising,Promoção de Vendas,Alianças Comerciais,Representantes Comerciais,Comissão de Vendas,Incentivos Comerciais,Desenvolvimento de Mercado,Penetração de Mercado,Market Share,Consultoria Comercial,Automação Comercial</t>
   </si>
   <si>
     <t>Estruturas de dados</t>
@@ -349,9 +328,6 @@
     <t>Remoto,participação de qualquer lugar do brasil,trabalho remoto,horário flexível,Trabalho remoto</t>
   </si>
   <si>
-    <t>Publicidade,Publicidade</t>
-  </si>
-  <si>
     <t>Excel</t>
   </si>
   <si>
@@ -373,9 +349,6 @@
     <t>Treinamentos internos, Progrmas de treinamento internos,ambiente de aprendizagem,</t>
   </si>
   <si>
-    <t>Engenharia,Engenharia,Engenharia de Software,Engenharias</t>
-  </si>
-  <si>
     <t>Cloud AWS</t>
   </si>
   <si>
@@ -385,9 +358,6 @@
     <t>G4,acesso ao G4 Skills</t>
   </si>
   <si>
-    <t>Química,Química</t>
-  </si>
-  <si>
     <t>Testes unitários e de integração</t>
   </si>
   <si>
@@ -397,9 +367,6 @@
     <t>Staage, acesso a Staage,acesso ao Staage</t>
   </si>
   <si>
-    <t>Economia,Economia,Macroeconomia</t>
-  </si>
-  <si>
     <t>Ferramentas de Analytics</t>
   </si>
   <si>
@@ -433,9 +400,6 @@
     <t>Não especificado,Não especificado,Não mencionados,Não especificados</t>
   </si>
   <si>
-    <t>Recursos Humanos,Recursos Humanos</t>
-  </si>
-  <si>
     <t>Gestão de fundos de investimento</t>
   </si>
   <si>
@@ -1051,10 +1015,40 @@
     <t>Moda e Vestuário</t>
   </si>
   <si>
-    <t>Atacado,Jurídico e Atacado,Venda por Atacado,Distribuição,Distribuição Atacadista,Logística Atacadista,Comércio Atacadista,Fornecedores,Distribuidores,Preços por Atacado,Estoque Atacadista,Armazenagem,Gestão de Estoques,Gestão de Distribuição,Canal de Distribuição,Compras por Atacado,Importação por Atacado,Exportação por Atacado,Frete Atacadista,Transportadoras,Expedição,Embalagem,Supply Chain,Supply Chain Management,Gestão da Cadeia de Suprimentos,Logística Reversa,Centro de Distribuição,Automatização de Armazéns,Distribuição de Produtos,Atacadista de Alimentos,Atacadista de Bebidas,Atacadista de Roupas,Atacadista de Eletrônicos,Atacadista de Produtos de Beleza,Atacadista de Cosméticos,Atacadista de Medicamentos,Atacadista de Produtos Hospitalares,Atacadista de Limpeza,Atacadista de Materiais de Construção,Atacadista de Ferramentas,Atacadista de Brinquedos,Atacadista de Móveis,Atacadista de Papelaria,Atacadista de Produtos para Escritório,Atacadista de Produtos Automotivos,Atacadista de Acessórios,Distribuição de Alimentos,Distribuição de Bebidas,Distribuição de Roupas,Distribuição de Eletrônicos,Distribuição de Cosméticos,Distribuição de Medicamentos,Distribuição de Materiais de Construção,Distribuição de Móveis,Distribuição de Produtos de Limpeza,Gestão de Fornecedores,Compras Corporativas,Compra Coletiva,Compra em Lote,Compra de Volume,Economia de Escala,Preço Competitivo,Análise de Mercado Atacadista,Pesquisa de Mercado Atacadista,Fidelização de Clientes Atacadistas,Marketing Atacadista,Marketing de Vendas por Atacado,E-commerce Atacadista,Vendas B2B,Vendas Corporativas,Atacado Digital,Atacado Online,Plataformas de Atacado,Marketplace Atacadista,Negociações por Atacado,Planejamento de Compras,Orçamento Atacadista,Projeção de Vendas por Atacado,Descontos por Volume,Ofertas por Atacado,Incentivos de Compra por Atacado,Relacionamento com Fornecedores,Gestão de Parcerias Atacadistas,Gestão de Cadeias de Suprimentos Globais,Distribuição Internacional,Atacadista Multicanal,Omnichannel Atacadista,Eficiência Operacional no Atacado,Redução de Custos no Atacado,Logística de Distribuição,Automatização de Processos Atacadistas</t>
-  </si>
-  <si>
-    <t>Marketing,Marketing,Marketing Digital,Marketing de Conteúdo,Marketing de Mídias Sociais,SEO,SEM,Publicidade Online,Google Ads,Facebook Ads,Instagram Ads,Email Marketing,Automação de Marketing,Inbound Marketing,Outbound Marketing,Marketing de Influência,Marketing de Afiliados,Marketing de Relacionamento,CRM,Gestão de Clientes,Fidelização de Clientes,Branding,Gestão de Marcas,Identidade Visual,Posicionamento de Marca,Pesquisa de Mercado,Análise de Concorrência,Análise de Dados,Marketing de Performance,ROI,Conversão,Leads,Geração de Leads,Nutrição de Leads,Campanhas de Marketing,Gestão de Campanhas,Planejamento de Marketing,Estratégia de Marketing,Plano de Marketing,Marketing de Produto,Lançamento de Produtos,Segmentação de Mercado,Persona de Cliente,Customer Journey,Experiência do Cliente,Marketing de Experiência,Marketing Omnichannel,Omnichannel,Atendimento ao Cliente,Sucesso do Cliente,Customer Success,Marketing de Eventos,Feiras e Exposições,Marketing de Proximidade,Marketing Geolocalizado,Marketing Viral,Storytelling,Copywriting,Conteúdo Interativo,Content Marketing,Video Marketing,Marketing de Vídeo,Live Marketing,Marketing em Tempo Real,Real-Time Marketing,Mobile Marketing,Marketing Mobile,App Marketing,Marketing de Aplicativos,Marketing para Dispositivos Móveis,E-commerce Marketing,Marketing para E-commerce,Social Media Marketing,Marketing em Redes Sociais,Gestão de Redes Sociais,Influencer Marketing,Marketing de Influenciadores,Marketing B2B,Marketing B2C,Marketing Empresarial,Publicidade e Propaganda,Publicidade Digital,Anúncios Online,Google Analytics,Web Analytics,Análise de Tráfego,Comportamento do Consumidor,Pesquisa de Satisfação,Pesquisa de Clientes,Marketing de Retenção,Retenção de Clientes,Remarketing,Retargeting,Google Search Console,Webmaster Tools,Marketing Local,Geotargeting,Marketing para Pequenas Empresas,Marketing para Startups,Marketing Estratégico,Marketing Criativo,Design de Marketing,Public Relations,PR,Comunicação Corporativa,Marketing de Conteúdo Visual</t>
+    <t>Produtos,Produtos,desenvolvimento de novos produtos,Gestão de Produtos,Desenvolvimento de Produtos,Lançamento de Produtos,Gestão de Portfólio,Inovação de Produtos,Design de Produtos,Gerenciamento de Produtos,Ciclo de Vida do Produto,Estratégia de Produto,Marketing de Produto,Posicionamento de Produto,Pesquisa de Mercado,Análise de Produto,Produto Mínimo Viável (MVP),Prototipagem,Validação de Produto,Testes de Produto,Pricing,Política de Preços,Diferenciação de Produto,Segmentação de Mercado,Gestão de Qualidade,Controle de Qualidade,Certificação de Produtos,Conformidade de Produtos,Segurança de Produtos,Suporte ao Produto,Manutenção de Produto,Melhoria Contínua,Embalagem de Produto,Logística de Produto,Distribuição de Produtos,Canal de Distribuição,Fornecimento de Produtos,Sustentabilidade de Produtos,Produto Verde,Produto Sustentável,Eco-design,Produto Personalizado,Produto Sob Medida,Personalização de Produtos,Produto Digital,Produto Físico,Produto Premium,Produto de Luxo,Produto Popular,Produto Básico,Produto Tecnológico</t>
+  </si>
+  <si>
+    <t>Recursos Humanos,Recursos Humanos,RH,Gestão de Pessoas,Talentos Humanos,Recrutamento e Seleção,Capacitação,Desenvolvimento de Pessoas,Treinamento,Gestão de Talentos,Atração de Talentos,Retenção de Talentos,Plano de Carreira,Plano de Sucessão,Clima Organizacional,Cultura Organizacional,Endomarketing,Comunicação Interna,Benefícios Corporativos,Remuneração,Gestão de Desempenho,Avaliação de Desempenho,Feedback,Coaching,Mentoria,Liderança,Gestão de Conflitos,Segurança do Trabalho,Saúde Ocupacional,Qualidade de Vida no Trabalho,Engajamento,Motivação,Equipes de Alto Desempenho,Diversidade e Inclusão,Compliance Trabalhista,Legislação Trabalhista,Estratégia de RH,Tecnologia em RH,HR Analytics,People Analytics,Sistemas de RH,Automação de RH,Folha de Pagamento,Recrutamento Digital,Employer Branding,Onboarding,Offboarding,Gestão de Turnover,Employee Experience,Transformação Digital em RH,Gestão de Competências</t>
+  </si>
+  <si>
+    <t>Economia,Economia,Macroeconomia,Economia Brasileira,Economia Internacional,Economia de Mercado,Teoria Econômica,Microeconomia,Política Econômica,Economia Aplicada,Economia Financeira,Economia de Desenvolvimento,Economia Rural,Economia Urbana,Economia Digital,Economia Verde,Economia Circular,Economia de Serviços,Economia do Setor Público,Economia Global,Economia de Comércio,Economia Monetária,Economia de Trabalho,Economia Regional,Economia Industrial,Economia de Empresas,Economia de Saúde,Economia de Educação,Economia Ambiental,Economia e Sustentabilidade,Economia de Recursos Naturais,Economia de Energia,Economia e Tecnologia,Economia e Inovação,Economia e Políticas Públicas,Economia e Comércio Exterior,Economia e Desenvolvimento Sustentável,Economia e Globalização,Economia e Crescimento Econômico,Economia e Inflação,Economia e Taxas de Juros,Economia e Desemprego,Economia e Pobreza,Economia e Riqueza,Economia e Desigualdade,Economia e Investimentos,Economia e Finanças Públicas,Economia e Tributos,Economia e Comércio Eletrônico,Economia e Política Fiscal,Economia e Política Monetária,Economia e Mercado Financeiro,Economia e Empreendedorismo,Economia e Startups,Economia e Comércio Internacional,Economia e Indicadores Econômicos,Economia e Planejamento Econômico,Economia e Administração,Economia e Gestão,Economia e Crescimento Regional,Economia e Desenvolvimento Local,Economia e Modelos Econômicos,Economia e Análise Econômica,Economia e Teoria dos Jogos,Economia e Comportamento Econômico,Economia e Pesquisa Econômica,Economia e Estatísticas Econômicas,Economia e Macroeconômia,Economia e Microeconomia,Economia e Econometria,Economia e Modelagem Econômica,Economia e Estratégia Econômica,Economia e Políticas Econômicas,Economia e Planejamento Financeiro,Economia e Análise de Risco,Economia e Gestão de Risco,Economia e Planejamento Urbano,Economia e Finanças Pessoais,Economia e Política Econômica Internacional</t>
+  </si>
+  <si>
+    <t>Engenharia,Engenharia,Engenharia de Software,Engenharias,Engenharia Civil,Engenharia Mecânica,Engenharia Elétrica,Engenharia de Produção,Engenharia Química,Engenharia Ambiental,Engenharia de Telecomunicações,Engenharia de Materiais,Engenharia de Transportes,Engenharia de Estruturas,Engenharia de Sistemas,Engenharia Biomédica,Engenharia de Segurança do Trabalho,Engenharia de Energia,Engenharia de Controle e Automação,Engenharia de Computação,Engenharia Aeroespacial,Engenharia Naval,Engenharia de Alimentos,Engenharia de Construção,Engenharia de Processos,Engenharia de Projetos,Gestão de Engenharia,Desenvolvimento de Produtos,Simulação de Engenharia,Modelagem de Engenharia,Análise Estrutural,Desenho Técnico,Engenharia de Manufatura,Engenharia de Requisitos,Engenharia de Software Ágil,Engenharia de Dados,Engenharia de Qualidade,Engenharia de Sistemas de Informação,Engenharia de Automação,Engenharia Mecatrônica,Engenharia de Instrumentação,Engenharia de Infraestrutura,Engenharia de Vendas Técnicas,Engenharia de Processos Industriais,Engenharia de Obras,Gestão de Obras,Planejamento de Obras,Engenharia de Controle,Análise de Sistemas,Engenharia de Clima,Engenharia Geotécnica,Engenharia de Energia Renovável,Engenharia de Redes,Engenharia de Máquinas,Engenharia de Tecido,Engenharia de Polímeros,Engenharia Hidráulica,Engenharia Hidrológica,Engenharia de Resíduos,Engenharia de Águas,Engenharia de Ambiente,Engenharia de Petróleo,Engenharia de Gás,Engenharia de Segurança,Engenharia de Risco,Engenharia Forense,Engenharia de Metais,Engenharia de Nanotecnologia,Engenharia de Sensores,Engenharia de Equipamentos,Engenharia de Software Embarcado,Engenharia de Fabricação,Engenharia de Estradas,Engenharia de Transporte Ferroviário,Engenharia de Transporte Rodoviário,Engenharia de Transporte Marítimo,Engenharia de Transporte Aéreo,Engenharia de Logística,Engenharia de Acústica,Engenharia de Telecomunicações Ópticas,Engenharia de Telecomunicações Sem Fio,Engenharia de Biomateriais,Engenharia de Reciclagem,Engenharia de Compostagem</t>
+  </si>
+  <si>
+    <t>Educação,Educação,Ensino,Aprendizagem,Pedagogia,Metodologia de Ensino,Gestão Educacional,Política Educacional,Desenvolvimento Educacional,Educação Infantil,Ensino Fundamental,Ensino Médio,Ensino Superior,Educação a Distância,Educação Online,Educação Inclusiva,Educação Especial,Educação de Jovens e Adultos,Formação de Professores,Capacitação de Educadores,Currículo Escolar,Planejamento Educacional,Avaliação Educacional,Recursos Didáticos,Didática,Psicopedagogia,Orientação Educacional,Administração Escolar,Gestão de Sala de Aula,Educação Bilíngue,Educação Socioemocional,Educação Ambiental,Educação Digital,Tecnologia Educacional,Educação e Tecnologia,Ensino de Línguas,Educação e Cidadania,Educação para a Sustentabilidade,Educação para a Saúde,Educação e Inclusão Social,Educação e Diversidade,Educação e Cultura,Educação e Empregabilidade,Educação e Formação Profissional,Educação e Políticas Públicas,Educação e Pesquisa,Educação e Inovação,Educação e Avaliação,Educação e Competências,Educação e Desenvolvimento Pessoal,Educação e Desenvolvimento Social,Educação e Direitos Humanos,Educação e Ensino à Distância,Educação e Métodos de Ensino,Educação e Formação Continuada</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de Software,Desenvolvimento de Software,Desenvolvimento de Plataforma de Crédito,Engenharia de Software,Tecnologia da Informação,Arquitetura de Software,Desenvolvimento Backend,Programação,Desenvolvimento de Sistemas,Codificação,Desenvolvimento Web,Desenvolvimento Frontend,DevOps,Metodologias Ágeis,Scrum,Kanban,Gestão de Projetos de Software,Integração Contínua,Entrega Contínua,Testes Automatizados,QA (Quality Assurance),TDD (Test Driven Development),BDD (Behavior Driven Development),Refatoração,Clean Code,Padrões de Projeto,Design Patterns,Microserviços,APIs RESTful,APIs GraphQL,Desenvolvimento Mobile,Desenvolvimento Android,Desenvolvimento iOS,Desenvolvimento Cross-Platform,React Native,Flutter,Frameworks de Desenvolvimento,Angular,React.js,Vue.js,Node.js,Spring Boot,Django,Ruby on Rails,Laravel,ASP.NET Core,Integração de Sistemas,Desenvolvimento Full Stack,Cloud Computing,AWS,Microsoft Azure,Google Cloud Platform,Serviços Web,Servidor de Aplicação,Servidor de Banco de Dados,MySQL,PostgreSQL,MongoDB,SQL Server,Banco de Dados Relacional,Banco de Dados Não Relacional,Big Data,Análise de Dados,Ciência de Dados,Machine Learning,Inteligência Artificial,IoT (Internet das Coisas),Segurança da Informação,Cibersegurança,Cryptografia,Blockchain,Desenvolvimento de Blockchain,Contratos Inteligentes,Automação de Processos,RPA (Robotic Process Automation),Chatbots,Assistentes Virtuais,Desenvolvimento de Jogos,Desenvolvimento de Realidade Aumentada,Desenvolvimento de Realidade Virtual,Desenvolvimento de Realidade Mista,WebGL,OpenGL,Unity,Unreal Engine,Controle de Versão,Git,GitHub,GitLab,Bitbucket,CI/CD,Jenkins,Kubernetes,Docker,Virtualização,Containers,Servidor Web,Apache,Nginx,Serviços de Mensageria,RabbitMQ,Apache Kafka,ElasticSearch,Redes Neurais,Programação Funcional,Programação Orientada a Objetos,Automação de Testes</t>
+  </si>
+  <si>
+    <t>Finanças,Finanças,Produtos Digitais Financeiros,Financeiro,DCM,Administração Financeira,Mercado Financeiro,Estratégia Corporativa e Financeira,Corporate Banking,Tesouraria,Gestão Financeira,Planejamento Financeiro,Análise Financeira,Contabilidade,Investimentos,Gestão de Investimentos,Finanças Corporativas,Finanças Pessoais,Orçamento,Controle de Despesas,Fluxo de Caixa,Análise de Risco,Gestão de Risco,Investimentos em Ações,Investimentos em Fundos,Investimentos Imobiliários,Análise de Crédito,Empréstimos,Financiamentos,Planejamento Tributário,Compliance Financeiro,Relatórios Financeiros,Auditoria Financeira,Gestão de Tesouraria,Planejamento Orçamentário,Análise de Investimentos,Gestão de Portfólio,Economia,Análise Econômica,Macroeconomia,Microeconomia,Economia Internacional,Política Monetária,Política Fiscal,Taxas de Juros,Inflação,Taxas de Câmbio,Previsão Financeira,Modelagem Financeira,Valuation,Capital de Giro,Gestão de Ativos,Gestão de Passivos,Gestão de Custos,Controle Orçamentário,Contabilidade Gerencial,Finanças Empresariais,Gestão de Dívidas,Consultoria Financeira,Planejamento de Aposentadoria,Planejamento Sucessório,Seguros,Gestão de Seguros,Análise de Investimento,Gestão de Riqueza,Desenvolvimento de Estratégias Financeiras,Reestruturação Financeira,Gestão de Caixa,Gestão de Investimentos Alternativos,Finanças de Projetos,Gestão de Receitas,Auditoria de Compliance,Relatórios Contábeis,Gestão de Fundos de Investimento,Fundos de Pensão,Gestão de Risco de Crédito,Gestão de Risco Operacional,Gestão de Risco de Mercado</t>
+  </si>
+  <si>
+    <t>Tecnologia,Tecnologia,Inovação Tecnológica,Transformação Digital,Tecnologia da Informação,TI,Tecnologia da Informação e Comunicação,Comunicações,Computação em Nuvem,Cloud Computing,Big Data,Data Science,Inteligência Artificial,IA,Machine Learning,Aprendizado de Máquina,Deep Learning,Redes Neurais,Automação,Tecnologia de Informação,Software,Hardware,Desenvolvimento de Software,Programação,Desenvolvimento Web,Desenvolvimento de Aplicativos,Aplicativos Móveis,IoT,Internet das Coisas,Robótica,Engenharia de Software,Sistemas Operacionais,Segurança da Informação,Cibersegurança,Criptografia,Blockchain,Computação Quântica,Realidade Aumentada,AR,Realidade Virtual,VR,Realidade Mista,Big Data Analytics,Análise de Dados,Gerenciamento de Dados,Data Warehouse,Business Intelligence,BI,Redes de Computadores,Infraestrutura de TI,DevOps,Automação de TI,Gerenciamento de TI,Tecnologia de Rede,Tecnologia Móvel,Desenvolvimento Ágil,Tecnologia Educacional,Educação e Tecnologia,Tecnologia e Saúde,Telemedicina,Tecnologia de Ponta,Tecnologia Sustentável,Smart Cities,Cidades Inteligentes,Smart Home,Casa Inteligente,Wearables,Dispositivos Vestíveis,3D Printing,Impressão 3D,Computação Distribuída,Edge Computing,Armazenamento em Nuvem,Serviços em Nuvem,DevSecOps,Computação em Borda,Processamento em Nuvem,Virtualização,Tecnologia de Ponto de Venda,PV,TI para Negócios,Suporte Técnico,Redes Sociais,Tecnologia de Comunicação,Tecnologia de Dados,Hardware de Computação,Plataformas de Software,Infraestrutura de Rede</t>
+  </si>
+  <si>
+    <t>Publicidade,Publicidade,Marketing,Propaganda,Campanhas Publicitárias,Comunicação Publicitária,Promoção,Anúncios,Publicidade Digital,Publicidade Online,Publicidade em Mídias Sociais,Publicidade em TV,Publicidade em Rádio,Publicidade em Impressos,Publicidade Exterior,Publicidade em Eventos,Publicidade Direta,Marketing de Conteúdo,Publicidade e Propaganda,Branding,Gestão de Marca,Posicionamento de Marca,Publicidade e Promoção,Criação Publicitária,Design Publicitário,Campanhas de Marketing,Publicidade e Vendas,Publicidade e Marketing Digital,Análise de Mercado,Pesquisa de Mercado,Segmentação de Mercado,Targeting,Posicionamento de Produto,Publicidade e Consumidor,Publicidade e Psicologia,Publicidade e Comportamento,Publicidade e Emoção,Publicidade Criativa,Publicidade Estratégica,Publicidade em E-mail,Publicidade de Produto,Publicidade Institucional,Publicidade Corporativa,Publicidade e Influenciadores,Publicidade em Mídia Paga,Publicidade em Mídia Orgânica,Publicidade em Mídia Digital,Publicidade e Estratégia de Mídia,Marketing de Influência,Publicidade e Tecnologia,Publicidade e Dados,Campanhas de Publicidade Online,Publicidade e ROI,Publicidade e Análise de Resultados,Publicidade e Métricas</t>
+  </si>
+  <si>
+    <t>Suporte,Suporte,Atendimento ao Cliente,Suporte Técnico,Assistência Técnica,Suporte ao Usuário,Help Desk,Serviço de Atendimento,Suporte Online,Suporte Telefônico,Suporte por E-mail,Suporte ao Cliente,Gestão de Suporte,Suporte a Sistemas,Suporte a Software,Suporte a Hardware,Manutenção de Sistemas,Manutenção de Equipamentos,Suporte de TI,Suporte a Produtos,Suporte ao Produto,Suporte a Serviços,Suporte Remoto,Suporte Presencial,Suporte 24/7,Suporte Proativo,Suporte Reativo,Serviço de Suporte,Suporte ao Usuário Final,Assistência ao Cliente,Gerenciamento de Incidentes,Gerenciamento de Problemas,Resolução de Problemas,Diagnóstico de Problemas,Suporte Técnico Especializado,Suporte Técnico Avançado,Suporte Técnico Geral,Serviço de Help Desk,Suporte de Nível 1,Suporte de Nível 2,Suporte de Nível 3,Escalonamento de Suporte,Documentação de Suporte,Base de Conhecimento,FAQ,FAQ Técnico,Central de Suporte,Centro de Atendimento,Suporte a Aplicações,Suporte a Infraestrutura,Suporte a Rede,Suporte a Sistemas Operacionais,Suporte a Banco de Dados,Suporte a Usuários,Suporte a Clientes,Gestão de Solicitações,Gestão de Chamados,Resolução de Chamados,Atendimento Personalizado,Suporte de Sistemas de Informação,Suporte em TI,Suporte ao Sistema,Suporte Operacional,Suporte ao Processo,Suporte de Aplicações Web,Suporte em Nuvem,Suporte ao Servidor,Suporte de Hardware,Suporte a Redes de Computadores,Suporte a Software Personalizado,Suporte Técnico Profissional,Suporte e Consultoria,Suporte em Campo,Suporte e Manutenção</t>
+  </si>
+  <si>
+    <t>UI/UX Design,UI/UX Design,Design de Interface,Design de Experiência do Usuário,Interface do Usuário,Experiência do Usuário,Design de Produto,Design de Interação,Prototipagem,Wireframes,Design Responsivo,Usabilidade,Pesquisa de Usuário,Testes de Usabilidade,Análise de Usabilidade,Design de Interfaces Digitais,Design Gráfico,Design de Aplicativos,Design de Sites,Experiência Digital,Arquitetura da Informação,Design de Navegação,Design de Layout,Design de Interação Humano-Computador,Design de Tela,Design de Aplicações Móveis,Design de Aplicações Web,Design Centrado no Usuário,Design Emocional,Design Inclusivo,Design Acessível,Design Visual,Design de Componentes,Design de Elementos,Design de Botões,Design de Formulários,Design de Iconografia,Design de Tipografia,Design de Cores,Design de Espaçamento,Design de Estilo,Design de Padrões,Design de Microinterações,Design de Transições,Design de Animações,Design de Feedback,Design de Experiência Interativa,Design de Interface de Usuário,Design de Experiência de Usuário,Design de Fluxo de Usuário,Design de Jornada do Usuário,Design de Protótipos,Testes A/B,Análise de Dados de Usuário,Persona,Mapas de Jornada,Mapas de Site,Design de Acessibilidade,Design de Mídias Sociais,Design de Aplicações Interativas,Design de Experiência de Marca,Design de Experiência do Cliente,Design de Funcionalidade,Design de Aplicações de Software,Design de Interfaces Usuário,Design de Interação Visual,Design de Experiência Digital,Design de Experiência Multicanal,Design de Experiência Imersiva,Design de Aplicações Empresariais,Design de Usabilidade Web,Design de Experiência Omnicanal,Design de Experiência Mobile,Design de Interação Digital,Design de Aplicações Responsivas,Design de Experiência do Produto,Design de Tela de Login,Design de Navegação de Site,Design de Interação de Aplicações</t>
+  </si>
+  <si>
+    <t>Comércio,Vendas,Marketing,Portfólio,Administração</t>
   </si>
 </sst>
 </file>
@@ -1419,13 +1413,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="142.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1474,1408 +1469,1402 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>337</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
+        <v>338</v>
+      </c>
+      <c r="H5" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
       <c r="G9" t="s">
-        <v>344</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
         <v>63</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>64</v>
       </c>
-      <c r="D10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" t="s">
-        <v>67</v>
-      </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
         <v>69</v>
       </c>
-      <c r="D11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" t="s">
-        <v>72</v>
-      </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
         <v>74</v>
       </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s">
-        <v>77</v>
-      </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s">
         <v>91</v>
-      </c>
-      <c r="F15" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" t="s">
         <v>98</v>
-      </c>
-      <c r="E17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>113</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G21" t="s">
-        <v>117</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" t="s">
         <v>118</v>
-      </c>
-      <c r="E22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" t="s">
         <v>122</v>
-      </c>
-      <c r="E23" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" t="s">
-        <v>124</v>
-      </c>
-      <c r="G23" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G24" t="s">
-        <v>129</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E30" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E32" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E33" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E35" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E37" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E38" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E39" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E40" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E41" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E43" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E44" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E46" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E47" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E48" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E49" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E50" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E51" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E52" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E53" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E54" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E55" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E56" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E57" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E58" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E59" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E60" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E61" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E62" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E63" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E64" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E65" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E66" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E67" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E68" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="E69" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E70" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E71" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E72" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E73" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="E74" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E75" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E76" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E77" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E78" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E79" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E80" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E82" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E83" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E84" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E85" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E86" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E87" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E88" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E89" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E90" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E91" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E92" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E93" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E94" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E95" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E96" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E97" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E98" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="E99" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="E100" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E101" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="E102" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E103" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E104" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="E105" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E106" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E107" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E108" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E109" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E110" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E111" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E112" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E113" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E114" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E115" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E116" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E117" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E118" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="119" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E119" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="120" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E120" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E121" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="122" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E122" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="123" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E123" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="124" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E124" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="125" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E125" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="126" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E126" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="127" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E127" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="128" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E128" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E129" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E130" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E131" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E132" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E133" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E134" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="135" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E135" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E136" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E137" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E138" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="139" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E139" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E140" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E141" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E142" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="143" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E143" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="144" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E144" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E145" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E146" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="147" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E147" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E148" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E149" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="150" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E150" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E151" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E152" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E153" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E154" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E155" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="156" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E156" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E157" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="158" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E158" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="159" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E159" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="160" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E160" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E161" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E162" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E163" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E164" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E165" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="166" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E166" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="167" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E167" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="168" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E168" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="169" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E169" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="170" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E170" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="171" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E171" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="172" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E172" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="173" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E173" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denil\OneDrive\Documentos\GitHub\CHATBOT_CEE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1CA72B-572B-4560-90F1-F71526F782BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD143C4A-6609-4939-8B85-200EF41B9F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="342">
   <si>
     <t>Localidade</t>
   </si>
@@ -313,9 +313,6 @@
     <t>Técnico em Eletrônica</t>
   </si>
   <si>
-    <t>Participação sobre lucros, PLR,possibilidade de sociedade,Participação dos lucros e resultados,</t>
-  </si>
-  <si>
     <t>Comercial,gestão de projetos,Business Intelligence,Estratégia Comercial,Gestão Comercial,Plano Comercial,Política Comercial,Desenvolvimento Comercial,Negociação Comercial,Área Comercial,Departamento Comercial,Diretoria Comercial,Gestão de Contas,Propostas Comerciais,Contratos Comerciais,Representação Comercial,Atendimento Comercial,Equipe Comercial,Força de Vendas,Metas Comerciais,Planejamento Comercial,Expansão Comercial,Gestão de Clientes,Prospecção Comercial,Gestão de Relacionamento,CRM,Fechamento de Contratos,Parcerias Comerciais,Negócios Comerciais,Marketing Comercial,Política de Preços,Ofertas Comerciais,Campanhas Comerciais,Desempenho Comercial,Análise Comercial,Relatório Comercial,Forecast Comercial,Projeções Comerciais,Canal de Vendas,Distribuição Comercial,Logística Comercial,Merchandising,Promoção de Vendas,Alianças Comerciais,Representantes Comerciais,Comissão de Vendas,Incentivos Comerciais,Desenvolvimento de Mercado,Penetração de Mercado,Market Share,Consultoria Comercial,Automação Comercial</t>
   </si>
   <si>
@@ -346,9 +343,6 @@
     <t>Engenharia de Produção</t>
   </si>
   <si>
-    <t>Treinamentos internos, Progrmas de treinamento internos,ambiente de aprendizagem,</t>
-  </si>
-  <si>
     <t>Cloud AWS</t>
   </si>
   <si>
@@ -397,9 +391,6 @@
     <t>Tecnologia da Informação</t>
   </si>
   <si>
-    <t>Não especificado,Não especificado,Não mencionados,Não especificados</t>
-  </si>
-  <si>
     <t>Gestão de fundos de investimento</t>
   </si>
   <si>
@@ -1049,6 +1040,12 @@
   </si>
   <si>
     <t>Comércio,Vendas,Marketing,Portfólio,Administração</t>
+  </si>
+  <si>
+    <t>Treinamentos internos, Programas de treinamento internos,ambiente de aprendizagem</t>
+  </si>
+  <si>
+    <t>Participação sobre lucros, PLR,possibilidade de sociedade,Participação dos lucros e resultados</t>
   </si>
 </sst>
 </file>
@@ -1413,12 +1410,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="255.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="142.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1469,7 +1471,7 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -1495,7 +1497,7 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
@@ -1544,7 +1546,7 @@
         <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H5" t="s">
         <v>35</v>
@@ -1570,7 +1572,7 @@
         <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1670,7 +1672,7 @@
         <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1704,7 +1706,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1721,7 +1723,7 @@
         <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1752,7 +1754,7 @@
         <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -1766,7 +1768,7 @@
         <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
@@ -1777,1094 +1779,1091 @@
         <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>341</v>
       </c>
       <c r="G18" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
         <v>99</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>100</v>
       </c>
-      <c r="F19" t="s">
-        <v>101</v>
-      </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
         <v>102</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>103</v>
       </c>
-      <c r="F20" t="s">
-        <v>104</v>
-      </c>
       <c r="G20" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" t="s">
         <v>106</v>
       </c>
-      <c r="E21" t="s">
-        <v>107</v>
-      </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>340</v>
       </c>
       <c r="G21" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" t="s">
         <v>109</v>
       </c>
-      <c r="E22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" t="s">
-        <v>111</v>
-      </c>
       <c r="G22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" t="s">
         <v>112</v>
       </c>
-      <c r="E23" t="s">
-        <v>113</v>
-      </c>
-      <c r="F23" t="s">
-        <v>114</v>
-      </c>
       <c r="G23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" t="s">
         <v>115</v>
       </c>
-      <c r="E24" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" t="s">
-        <v>117</v>
-      </c>
       <c r="G24" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" t="s">
         <v>119</v>
-      </c>
-      <c r="E25" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E36" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E42" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E43" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E44" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E46" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E47" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E48" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E49" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E50" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E51" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E52" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E53" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E54" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E55" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E56" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E57" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E58" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E59" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E60" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E61" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E62" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E63" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E64" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E65" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E66" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E67" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E68" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E69" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E70" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E71" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E72" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E73" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E74" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E75" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E76" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E77" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E78" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E80" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E81" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E82" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E83" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E84" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E85" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E86" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E87" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E88" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E90" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E91" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E92" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E93" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E94" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E95" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E96" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E97" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E98" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E99" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E100" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E101" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E102" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E103" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E104" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E105" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E106" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E107" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E108" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E109" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E110" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E111" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E112" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E113" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E114" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E115" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E116" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E117" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E118" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="119" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E119" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="120" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E120" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E121" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="122" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E122" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="123" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E123" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="124" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E124" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="125" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E125" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E126" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="127" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E127" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="128" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E128" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E129" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E130" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E131" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E132" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E133" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E134" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E135" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="136" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E136" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="137" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E137" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="138" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E138" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="139" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E139" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E140" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E141" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E142" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="143" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E143" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="144" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E144" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E145" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E146" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="147" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E147" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E148" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E149" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="150" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E150" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E151" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E152" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E153" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E154" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E155" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="156" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E156" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E157" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="158" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E158" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E159" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="160" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E160" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E161" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E162" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E163" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E164" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E165" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="166" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E166" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="167" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E167" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="168" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E168" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="169" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E169" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="170" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E170" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="171" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E171" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="172" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E172" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="173" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E173" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
